--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,19 +5,18 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\いらない物入\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\3DTeam\3DGameTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C33BF60B-D189-4B44-B655-715E4E9F2EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E2FA4983-C271-4B0E-AEF8-A42AA9D777A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{1FAD1F73-1DFD-41DC-BAF3-0D259E247EEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1FAD1F73-1DFD-41DC-BAF3-0D259E247EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="180" uniqueCount="161">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="181" uniqueCount="162">
   <si>
     <t>ガントチャート</t>
     <phoneticPr fontId="1"/>
@@ -1505,6 +1504,10 @@
     <rPh sb="0" eb="1">
       <t>スミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>END</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1512,7 +1515,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1600,6 +1603,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2309,7 +2328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2343,96 +2362,306 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2509,24 +2738,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2535,274 +2746,85 @@
     <xf numFmtId="56" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3240,354 +3262,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC689AA-D477-4FA5-8B90-69C0329D1886}">
-  <dimension ref="B1:W78"/>
+  <dimension ref="B1:W77"/>
   <sheetViews>
-    <sheetView topLeftCell="G24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" topLeftCell="G33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="39.75" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="39.69921875" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="8.9140625" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
-    <col min="17" max="17" width="36.25" customWidth="1"/>
+    <col min="8" max="8" width="8.8984375" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" customWidth="1"/>
+    <col min="12" max="12" width="20.796875" customWidth="1"/>
+    <col min="17" max="17" width="36.19921875" customWidth="1"/>
     <col min="22" max="22" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="11" t="s">
+    <row r="1" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="E2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="5" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="6" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="17" t="s">
+      <c r="F2" s="140"/>
+      <c r="G2" s="141"/>
+    </row>
+    <row r="3" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="142"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="144"/>
+    </row>
+    <row r="5" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="N6" s="17" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
+      <c r="N6" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="42"/>
-    </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="45"/>
-    </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="45"/>
-    </row>
-    <row r="9" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="48"/>
-    </row>
-    <row r="10" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="112"/>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="115"/>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="115"/>
+    </row>
+    <row r="9" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="152"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="118"/>
+    </row>
+    <row r="10" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="4"/>
       <c r="J10" s="5"/>
       <c r="N10" s="4"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="26" t="s">
+    <row r="11" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="C11" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="F11" s="30" t="s">
+      <c r="D11" s="154"/>
+      <c r="F11" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="I11" s="30" t="s">
+      <c r="G11" s="158"/>
+      <c r="I11" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="31"/>
+      <c r="J11" s="158"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="49" t="s">
+      <c r="O11" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="51"/>
-      <c r="T11" s="55" t="s">
+      <c r="P11" s="120"/>
+      <c r="Q11" s="121"/>
+      <c r="T11" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="56"/>
-      <c r="V11" s="57"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="127"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
+    <row r="12" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="155"/>
+      <c r="D12" s="156"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="60"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="124"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="130"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C13" s="34" t="s">
+    <row r="13" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="F13" s="74" t="s">
+      <c r="D13" s="104"/>
+      <c r="F13" s="138" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="38" t="d">
+      <c r="I13" s="107" t="d">
         <v>2025-01-20</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="61" t="s">
+      <c r="O13" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="63"/>
-      <c r="T13" s="61" t="s">
+      <c r="P13" s="132"/>
+      <c r="Q13" s="133"/>
+      <c r="T13" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="U13" s="62"/>
-      <c r="V13" s="63"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="133"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C14" s="38" t="d">
+    <row r="14" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="107" t="d">
         <v>2025-01-20</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="39"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="109"/>
       <c r="J14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="67" t="d">
+      <c r="O14" s="86" t="d">
         <v>2025-01-20</v>
       </c>
-      <c r="P14" s="68"/>
+      <c r="P14" s="87"/>
       <c r="Q14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T14" s="73" t="s">
+      <c r="T14" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="U14" s="68"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C15" s="39"/>
+    <row r="15" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C15" s="108"/>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="40"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="5"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="70"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="89"/>
       <c r="Q15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="69"/>
-      <c r="U15" s="70"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C16" s="39"/>
+    <row r="16" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="108"/>
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="5"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="70"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="89"/>
       <c r="Q16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="71"/>
-      <c r="U16" s="72"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C17" s="39"/>
+    <row r="17" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C17" s="108"/>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="5"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="70"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="89"/>
       <c r="Q17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T17" s="61" t="s">
+      <c r="T17" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="U17" s="62"/>
-      <c r="V17" s="63"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="133"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="39"/>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="C18" s="108"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="5"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="70"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="89"/>
       <c r="Q18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T18" s="73" t="s">
+      <c r="T18" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="U18" s="68"/>
+      <c r="U18" s="87"/>
       <c r="V18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C19" s="40"/>
+    <row r="19" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="109"/>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="5"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="72"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="91"/>
       <c r="Q19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="69"/>
-      <c r="U19" s="70"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="89"/>
       <c r="V19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C20" s="36" t="s">
+    <row r="20" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C20" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="106"/>
       <c r="J20" s="5"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="64" t="s">
+      <c r="O20" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="66"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="70"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="136"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="89"/>
       <c r="V20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="38" t="d">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="C21" s="107" t="d">
         <v>2025-01-20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3595,69 +3617,69 @@
       </c>
       <c r="J21" s="5"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="67" t="d">
+      <c r="O21" s="86" t="d">
         <v>2025-01-20</v>
       </c>
-      <c r="P21" s="68"/>
+      <c r="P21" s="87"/>
       <c r="Q21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="69"/>
-      <c r="U21" s="70"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="89"/>
       <c r="V21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C22" s="39"/>
+    <row r="22" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C22" s="108"/>
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="5"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="70"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="89"/>
       <c r="Q22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T22" s="71"/>
-      <c r="U22" s="72"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="91"/>
       <c r="V22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="39"/>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="C23" s="108"/>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="5"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="70"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="89"/>
       <c r="Q23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C24" s="39"/>
+    <row r="24" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C24" s="108"/>
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="5"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="72"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="91"/>
       <c r="Q24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="W24" s="5"/>
     </row>
-    <row r="25" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C25" s="39"/>
+    <row r="25" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C25" s="108"/>
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3673,14 +3695,14 @@
       <c r="V25" s="7"/>
       <c r="W25" s="8"/>
     </row>
-    <row r="26" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C26" s="40"/>
+    <row r="26" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C26" s="109"/>
       <c r="D26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3690,633 +3712,674 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="P28" s="111" t="s">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="P28" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="113"/>
-      <c r="V28" s="138" t="s">
+      <c r="Q28" s="62"/>
+      <c r="R28" s="63"/>
+      <c r="V28" s="51" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="P29" s="114"/>
-      <c r="Q29" s="115"/>
-      <c r="R29" s="116"/>
-      <c r="V29" s="139"/>
-    </row>
-    <row r="30" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P29" s="64"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="66"/>
+      <c r="V29" s="52"/>
+    </row>
+    <row r="30" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P30" s="4"/>
-      <c r="Q30" s="133" t="s">
+      <c r="Q30" s="31" t="s">
         <v>114</v>
       </c>
       <c r="R30" s="5"/>
-      <c r="V30" s="140" t="s">
+      <c r="V30" s="36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P31" s="6"/>
-      <c r="Q31" s="132" t="s">
+      <c r="Q31" s="30" t="s">
         <v>115</v>
       </c>
       <c r="R31" s="8"/>
-      <c r="V31" s="99" t="s">
+      <c r="V31" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="V32" s="141" t="s">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="V32" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="V33" s="97" t="s">
+    <row r="33" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V33" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C34" s="134" t="s">
+    <row r="34" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C34" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="137"/>
+      <c r="D34" s="35"/>
       <c r="G34" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="82" t="s">
+      <c r="J34" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="84"/>
-      <c r="V34" s="97" t="s">
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="94"/>
+      <c r="V34" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" s="135" t="s">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C35" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="97"/>
+      <c r="D35" s="19"/>
       <c r="G35" t="s">
         <v>52</v>
       </c>
-      <c r="J35" s="79" t="s">
+      <c r="J35" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="81"/>
-      <c r="V35" s="97" t="s">
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="16"/>
+      <c r="V35" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C36" s="136" t="s">
+    <row r="36" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C36" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="98"/>
+      <c r="D36" s="20"/>
       <c r="G36" t="s">
         <v>54</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
       <c r="M36" s="10"/>
-      <c r="V36" s="97" t="s">
+      <c r="V36" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="V37" s="100" t="s">
+    <row r="37" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V37" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="V38" s="99" t="s">
+    <row r="38" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V38" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="V39" s="141" t="s">
+    <row r="39" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V39" s="37" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="90" t="s">
+    <row r="40" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="92"/>
-      <c r="I40" s="111" t="s">
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="97"/>
+      <c r="I40" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
-      <c r="M40" s="113"/>
-      <c r="P40" s="111" t="s">
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="63"/>
+      <c r="P40" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="113"/>
-      <c r="V40" s="97" t="s">
+      <c r="Q40" s="62"/>
+      <c r="R40" s="63"/>
+      <c r="V40" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B41" s="93"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="95"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="116"/>
-      <c r="P41" s="114"/>
-      <c r="Q41" s="115"/>
-      <c r="R41" s="116"/>
-      <c r="V41" s="100" t="s">
+    <row r="41" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="98"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="100"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="66"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="66"/>
+      <c r="V41" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="4"/>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="89"/>
+      <c r="D42" s="102"/>
       <c r="E42" s="5"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="108" t="s">
+      <c r="J42" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="K42" s="109"/>
-      <c r="L42" s="110"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="72"/>
       <c r="M42" s="5"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="102" t="s">
+      <c r="Q42" s="24" t="s">
         <v>73</v>
       </c>
       <c r="R42" s="5"/>
-      <c r="V42" s="99" t="s">
+      <c r="V42" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="4"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>60</v>
       </c>
       <c r="E43" s="5"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="103" t="s">
+      <c r="J43" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="K43" s="76"/>
-      <c r="L43" s="104"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="57"/>
       <c r="M43" s="5"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="96" t="s">
+      <c r="Q43" s="18" t="s">
         <v>74</v>
       </c>
       <c r="R43" s="5"/>
-      <c r="V43" s="99" t="s">
+      <c r="V43" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B44" s="4"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77" t="s">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E44" s="5"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="103" t="s">
+      <c r="J44" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="K44" s="76"/>
-      <c r="L44" s="104"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="57"/>
       <c r="M44" s="5"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="97" t="s">
+      <c r="Q44" s="19" t="s">
         <v>75</v>
       </c>
       <c r="R44" s="5"/>
-      <c r="V44" s="141" t="s">
+      <c r="V44" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="4"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87" t="s">
+      <c r="C45" s="17"/>
+      <c r="D45" s="17" t="s">
         <v>62</v>
       </c>
       <c r="E45" s="5"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="103" t="s">
+      <c r="J45" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="K45" s="76"/>
-      <c r="L45" s="104"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="57"/>
       <c r="M45" s="5"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="97" t="s">
+      <c r="Q45" s="19" t="s">
         <v>76</v>
       </c>
       <c r="R45" s="5"/>
-      <c r="V45" s="100" t="s">
+      <c r="V45" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="4"/>
-      <c r="C46" s="85" t="s">
+      <c r="C46" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="86"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="5"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="103" t="s">
+      <c r="J46" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="K46" s="76"/>
-      <c r="L46" s="104"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="57"/>
       <c r="M46" s="5"/>
       <c r="P46" s="4"/>
-      <c r="Q46" s="97" t="s">
+      <c r="Q46" s="19" t="s">
         <v>77</v>
       </c>
       <c r="R46" s="5"/>
-      <c r="V46" s="99" t="s">
+      <c r="V46" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="4"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80" t="s">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="5"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="105" t="s">
+      <c r="J47" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="K47" s="106"/>
-      <c r="L47" s="107"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="60"/>
       <c r="M47" s="8"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="97" t="s">
+      <c r="Q47" s="19" t="s">
         <v>78</v>
       </c>
       <c r="R47" s="5"/>
-      <c r="V47" s="141" t="s">
+      <c r="V47" s="37" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B48" s="4"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77" t="s">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E48" s="5"/>
       <c r="P48" s="4"/>
-      <c r="Q48" s="97" t="s">
+      <c r="Q48" s="19" t="s">
         <v>79</v>
       </c>
       <c r="R48" s="5"/>
-      <c r="V48" s="97" t="s">
+      <c r="V48" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B49" s="4"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77" t="s">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E49" s="5"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="97" t="s">
+      <c r="Q49" s="19" t="s">
         <v>80</v>
       </c>
       <c r="R49" s="5"/>
-      <c r="V49" s="97" t="s">
+      <c r="V49" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="4"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77" t="s">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12" t="s">
         <v>67</v>
       </c>
       <c r="E50" s="5"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="100" t="s">
+      <c r="Q50" s="22" t="s">
         <v>81</v>
       </c>
       <c r="R50" s="5"/>
-      <c r="V50" s="97" t="s">
+      <c r="V50" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="4"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87" t="s">
+      <c r="C51" s="17"/>
+      <c r="D51" s="17" t="s">
         <v>68</v>
       </c>
       <c r="E51" s="5"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="99" t="s">
+      <c r="Q51" s="21" t="s">
         <v>82</v>
       </c>
       <c r="R51" s="5"/>
-      <c r="V51" s="98" t="s">
+      <c r="V51" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="4"/>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="86"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="5"/>
-      <c r="I52" s="117" t="s">
+      <c r="I52" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="119"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="80"/>
       <c r="P52" s="6"/>
-      <c r="Q52" s="101" t="s">
+      <c r="Q52" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="4"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80" t="s">
+      <c r="C53" s="15"/>
+      <c r="D53" s="15" t="s">
         <v>70</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="121"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="122"/>
-    </row>
-    <row r="54" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I53" s="81"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="83"/>
+    </row>
+    <row r="54" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="6"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78" t="s">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="I54" s="123"/>
-      <c r="J54" s="121"/>
-      <c r="K54" s="121"/>
-      <c r="L54" s="121"/>
-      <c r="M54" s="124"/>
-      <c r="V54" s="142" t="s">
+      <c r="I54" s="84"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="85"/>
+      <c r="V54" s="53" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I55" s="4"/>
-      <c r="J55" s="125" t="s">
+      <c r="J55" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="K55" s="126"/>
-      <c r="L55" s="127"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="69"/>
       <c r="M55" s="5"/>
-      <c r="V55" s="143"/>
-    </row>
-    <row r="56" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V55" s="54"/>
+    </row>
+    <row r="56" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I56" s="4"/>
-      <c r="J56" s="108" t="s">
+      <c r="J56" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="K56" s="109"/>
-      <c r="L56" s="110"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="72"/>
       <c r="M56" s="5"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I57" s="4"/>
-      <c r="J57" s="103" t="s">
+      <c r="J57" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="K57" s="76"/>
-      <c r="L57" s="104"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="57"/>
       <c r="M57" s="5"/>
-      <c r="V57" s="99" t="s">
+      <c r="V57" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I58" s="4"/>
-      <c r="J58" s="129" t="s">
+      <c r="J58" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="K58" s="128"/>
-      <c r="L58" s="130"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="75"/>
       <c r="M58" s="5"/>
     </row>
-    <row r="59" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I59" s="4"/>
-      <c r="J59" s="125" t="s">
+      <c r="J59" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="K59" s="126"/>
-      <c r="L59" s="127"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="69"/>
       <c r="M59" s="5"/>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.45">
       <c r="I60" s="4"/>
-      <c r="J60" s="108" t="s">
+      <c r="J60" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="K60" s="109"/>
-      <c r="L60" s="110"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="72"/>
       <c r="M60" s="5"/>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.45">
       <c r="I61" s="4"/>
-      <c r="J61" s="103" t="s">
+      <c r="J61" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="K61" s="76"/>
-      <c r="L61" s="104"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="57"/>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.45">
       <c r="I62" s="4"/>
-      <c r="J62" s="103" t="s">
+      <c r="J62" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="K62" s="76"/>
-      <c r="L62" s="104"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="57"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I63" s="4"/>
-      <c r="J63" s="129" t="s">
+      <c r="J63" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="K63" s="128"/>
-      <c r="L63" s="130"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="75"/>
       <c r="M63" s="5"/>
     </row>
-    <row r="64" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I64" s="4"/>
-      <c r="J64" s="125" t="s">
+      <c r="J64" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="K64" s="126"/>
-      <c r="L64" s="127"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="69"/>
       <c r="M64" s="5"/>
     </row>
-    <row r="65" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I65" s="4"/>
-      <c r="J65" s="108" t="s">
+      <c r="J65" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="K65" s="109"/>
-      <c r="L65" s="110"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="72"/>
       <c r="M65" s="5"/>
     </row>
-    <row r="66" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I66" s="4"/>
-      <c r="J66" s="103" t="s">
+      <c r="J66" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="K66" s="76"/>
-      <c r="L66" s="104"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="57"/>
       <c r="M66" s="5"/>
     </row>
-    <row r="67" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I67" s="4"/>
-      <c r="J67" s="103" t="s">
+      <c r="J67" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="K67" s="76"/>
-      <c r="L67" s="104"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="57"/>
       <c r="M67" s="5"/>
     </row>
-    <row r="68" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I68" s="4"/>
-      <c r="J68" s="103" t="s">
+      <c r="J68" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="K68" s="76"/>
-      <c r="L68" s="104"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="57"/>
       <c r="M68" s="5"/>
     </row>
-    <row r="69" spans="9:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="9:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I69" s="4"/>
-      <c r="J69" s="129" t="s">
+      <c r="J69" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="K69" s="128"/>
-      <c r="L69" s="130"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="75"/>
       <c r="M69" s="5"/>
     </row>
-    <row r="70" spans="9:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="9:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I70" s="4"/>
-      <c r="J70" s="125" t="s">
+      <c r="J70" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="K70" s="126"/>
-      <c r="L70" s="127"/>
+      <c r="K70" s="68"/>
+      <c r="L70" s="69"/>
       <c r="M70" s="5"/>
     </row>
-    <row r="71" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I71" s="4"/>
-      <c r="J71" s="108" t="s">
+      <c r="J71" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="K71" s="109"/>
-      <c r="L71" s="110"/>
+      <c r="K71" s="71"/>
+      <c r="L71" s="72"/>
       <c r="M71" s="5"/>
     </row>
-    <row r="72" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I72" s="4"/>
-      <c r="J72" s="103" t="s">
+      <c r="J72" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="K72" s="76"/>
-      <c r="L72" s="104"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="57"/>
       <c r="M72" s="5"/>
     </row>
-    <row r="73" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I73" s="4"/>
-      <c r="J73" s="103" t="s">
+      <c r="J73" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="K73" s="76"/>
-      <c r="L73" s="104"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="57"/>
       <c r="M73" s="5"/>
     </row>
-    <row r="74" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I74" s="4"/>
-      <c r="J74" s="103" t="s">
+      <c r="J74" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="K74" s="76"/>
-      <c r="L74" s="104"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="57"/>
       <c r="M74" s="5"/>
     </row>
-    <row r="75" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I75" s="4"/>
-      <c r="J75" s="103" t="s">
+      <c r="J75" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="K75" s="76"/>
-      <c r="L75" s="104"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="57"/>
       <c r="M75" s="5"/>
     </row>
-    <row r="76" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I76" s="4"/>
-      <c r="J76" s="103" t="s">
+      <c r="J76" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K76" s="76"/>
-      <c r="L76" s="104"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="57"/>
       <c r="M76" s="5"/>
     </row>
-    <row r="77" spans="9:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="9:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I77" s="6"/>
-      <c r="J77" s="105" t="s">
+      <c r="J77" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="K77" s="106"/>
-      <c r="L77" s="107"/>
+      <c r="K77" s="59"/>
+      <c r="L77" s="60"/>
       <c r="M77" s="8"/>
-    </row>
-    <row r="78" spans="9:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="J78" s="131"/>
-      <c r="K78" s="131"/>
-      <c r="L78" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="C6:J9"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="N6:W9"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="T11:V12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O14:P19"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T14:U16"/>
+    <mergeCell ref="T18:U22"/>
+    <mergeCell ref="O21:P24"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="B40:E41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="P40:R41"/>
+    <mergeCell ref="I40:M41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="I52:M54"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="J64:L64"/>
     <mergeCell ref="V28:V29"/>
     <mergeCell ref="V54:V55"/>
     <mergeCell ref="J75:L75"/>
@@ -4333,52 +4396,6 @@
     <mergeCell ref="J67:L67"/>
     <mergeCell ref="J68:L68"/>
     <mergeCell ref="J69:L69"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="P40:R41"/>
-    <mergeCell ref="I40:M41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="I52:M54"/>
-    <mergeCell ref="O21:P24"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="B40:E41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="N6:W9"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="T11:V12"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O14:P19"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T14:U16"/>
-    <mergeCell ref="T18:U22"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="C6:J9"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="I11:J12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4390,778 +4407,780 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02D2303-CFA3-46F9-A8DF-76EA1BC5E32B}">
   <dimension ref="B2:AP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozenSplit"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="38.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="K2" s="147" t="s">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="K2" s="161" t="s">
         <v>153</v>
       </c>
-      <c r="AB2" s="75" t="s">
+      <c r="AB2" s="162" t="s">
         <v>154</v>
       </c>
-      <c r="AP2" s="75" t="s">
+      <c r="AP2" s="162" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="K3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AP3" s="75"/>
-    </row>
-    <row r="4" spans="2:42" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="K4" s="146"/>
-      <c r="AB4" s="146"/>
-      <c r="AP4" s="146"/>
-    </row>
-    <row r="5" spans="2:42" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="149" t="s">
+    <row r="3" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="K3" s="162"/>
+      <c r="AB3" s="162"/>
+      <c r="AP3" s="162"/>
+    </row>
+    <row r="4" spans="2:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AP4" s="163"/>
+    </row>
+    <row r="5" spans="2:42" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="148" t="d">
+      <c r="D5" s="40" t="d">
         <v>2025-01-21</v>
       </c>
-      <c r="E5" s="144" t="d">
+      <c r="E5" s="38" t="d">
         <v>2025-01-22</v>
       </c>
-      <c r="F5" s="144" t="d">
+      <c r="F5" s="38" t="d">
         <v>2025-01-23</v>
       </c>
-      <c r="G5" s="144" t="d">
+      <c r="G5" s="38" t="d">
         <v>2025-01-24</v>
       </c>
-      <c r="H5" s="144" t="d">
+      <c r="H5" s="38" t="d">
         <v>2025-01-25</v>
       </c>
-      <c r="I5" s="144" t="d">
+      <c r="I5" s="38" t="d">
         <v>2025-01-26</v>
       </c>
-      <c r="J5" s="144" t="d">
+      <c r="J5" s="38" t="d">
         <v>2025-01-27</v>
       </c>
-      <c r="K5" s="144" t="d">
+      <c r="K5" s="38" t="d">
         <v>2025-01-28</v>
       </c>
-      <c r="L5" s="144" t="d">
+      <c r="L5" s="38" t="d">
         <v>2025-01-29</v>
       </c>
-      <c r="M5" s="144" t="d">
+      <c r="M5" s="38" t="d">
         <v>2025-01-30</v>
       </c>
-      <c r="N5" s="144" t="d">
+      <c r="N5" s="38" t="d">
         <v>2025-01-31</v>
       </c>
-      <c r="O5" s="144" t="d">
+      <c r="O5" s="38" t="d">
         <v>2025-02-01</v>
       </c>
-      <c r="P5" s="144" t="d">
+      <c r="P5" s="38" t="d">
         <v>2025-02-02</v>
       </c>
-      <c r="Q5" s="144" t="d">
+      <c r="Q5" s="38" t="d">
         <v>2025-02-03</v>
       </c>
-      <c r="R5" s="144" t="d">
+      <c r="R5" s="38" t="d">
         <v>2025-02-04</v>
       </c>
-      <c r="S5" s="144" t="d">
+      <c r="S5" s="38" t="d">
         <v>2025-02-05</v>
       </c>
-      <c r="T5" s="144" t="d">
+      <c r="T5" s="38" t="d">
         <v>2025-02-06</v>
       </c>
-      <c r="U5" s="144" t="d">
+      <c r="U5" s="38" t="d">
         <v>2025-02-07</v>
       </c>
-      <c r="V5" s="144" t="d">
+      <c r="V5" s="38" t="d">
         <v>2025-02-08</v>
       </c>
-      <c r="W5" s="144" t="d">
+      <c r="W5" s="38" t="d">
         <v>2025-02-09</v>
       </c>
-      <c r="X5" s="144" t="d">
+      <c r="X5" s="38" t="d">
         <v>2025-02-10</v>
       </c>
-      <c r="Y5" s="144" t="d">
+      <c r="Y5" s="38" t="d">
         <v>2025-02-11</v>
       </c>
-      <c r="Z5" s="144" t="d">
+      <c r="Z5" s="38" t="d">
         <v>2025-02-12</v>
       </c>
-      <c r="AA5" s="144" t="d">
+      <c r="AA5" s="38" t="d">
         <v>2025-02-13</v>
       </c>
-      <c r="AB5" s="144" t="d">
+      <c r="AB5" s="38" t="d">
         <v>2025-02-14</v>
       </c>
-      <c r="AC5" s="144" t="d">
+      <c r="AC5" s="38" t="d">
         <v>2025-02-15</v>
       </c>
-      <c r="AD5" s="144" t="d">
+      <c r="AD5" s="38" t="d">
         <v>2025-02-16</v>
       </c>
-      <c r="AE5" s="144" t="d">
+      <c r="AE5" s="38" t="d">
         <v>2025-02-17</v>
       </c>
-      <c r="AF5" s="144" t="d">
+      <c r="AF5" s="38" t="d">
         <v>2025-02-18</v>
       </c>
-      <c r="AG5" s="144" t="d">
+      <c r="AG5" s="38" t="d">
         <v>2025-02-19</v>
       </c>
-      <c r="AH5" s="144" t="d">
+      <c r="AH5" s="38" t="d">
         <v>2025-02-20</v>
       </c>
-      <c r="AI5" s="144" t="d">
+      <c r="AI5" s="38" t="d">
         <v>2025-02-21</v>
       </c>
-      <c r="AJ5" s="144" t="d">
+      <c r="AJ5" s="38" t="d">
         <v>2025-02-22</v>
       </c>
-      <c r="AK5" s="144" t="d">
+      <c r="AK5" s="38" t="d">
         <v>2025-02-23</v>
       </c>
-      <c r="AL5" s="144" t="d">
+      <c r="AL5" s="38" t="d">
         <v>2025-02-24</v>
       </c>
-      <c r="AM5" s="144" t="d">
+      <c r="AM5" s="38" t="d">
         <v>2025-02-25</v>
       </c>
-      <c r="AN5" s="144" t="d">
+      <c r="AN5" s="38" t="d">
         <v>2025-02-26</v>
       </c>
-      <c r="AO5" s="144" t="d">
+      <c r="AO5" s="38" t="d">
         <v>2025-02-27</v>
       </c>
-      <c r="AP5" s="145" t="d">
+      <c r="AP5" s="39" t="d">
         <v>2025-02-28</v>
       </c>
     </row>
-    <row r="6" spans="2:42" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="150" t="s">
+    <row r="6" spans="2:42" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="156" t="s">
+      <c r="D6" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="157"/>
-      <c r="P6" s="157"/>
-      <c r="Q6" s="157"/>
-      <c r="R6" s="157"/>
-      <c r="S6" s="157"/>
-      <c r="T6" s="157"/>
-      <c r="U6" s="157"/>
-      <c r="V6" s="157"/>
-      <c r="W6" s="157"/>
-      <c r="X6" s="157"/>
-      <c r="Y6" s="157"/>
-      <c r="Z6" s="157"/>
-      <c r="AA6" s="157"/>
-      <c r="AB6" s="157"/>
-      <c r="AC6" s="157"/>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="157"/>
-      <c r="AF6" s="157"/>
-      <c r="AG6" s="157"/>
-      <c r="AH6" s="157"/>
-      <c r="AI6" s="157"/>
-      <c r="AJ6" s="157"/>
-      <c r="AK6" s="157"/>
-      <c r="AL6" s="157"/>
-      <c r="AM6" s="157"/>
-      <c r="AN6" s="157"/>
-      <c r="AO6" s="157"/>
-      <c r="AP6" s="158"/>
-    </row>
-    <row r="7" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="152" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="29"/>
+    </row>
+    <row r="7" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="153" t="s">
+      <c r="C7" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="160"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="160"/>
-      <c r="AG7" s="160"/>
-      <c r="AH7" s="160"/>
-      <c r="AI7" s="160"/>
-      <c r="AJ7" s="160"/>
-      <c r="AK7" s="160"/>
-      <c r="AL7" s="160"/>
-      <c r="AM7" s="160"/>
-      <c r="AN7" s="160"/>
-      <c r="AO7" s="160"/>
-      <c r="AP7" s="161"/>
-    </row>
-    <row r="8" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="152" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="25"/>
+    </row>
+    <row r="8" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="159"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="160"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
-      <c r="X8" s="160"/>
-      <c r="Y8" s="160"/>
-      <c r="Z8" s="160"/>
-      <c r="AA8" s="160"/>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="160"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="160"/>
-      <c r="AF8" s="160"/>
-      <c r="AG8" s="160"/>
-      <c r="AH8" s="160"/>
-      <c r="AI8" s="160"/>
-      <c r="AJ8" s="160"/>
-      <c r="AK8" s="160"/>
-      <c r="AL8" s="160"/>
-      <c r="AM8" s="160"/>
-      <c r="AN8" s="160"/>
-      <c r="AO8" s="160"/>
-      <c r="AP8" s="161"/>
-    </row>
-    <row r="9" spans="2:42" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="152" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="25"/>
+    </row>
+    <row r="9" spans="2:42" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="153" t="s">
+      <c r="C9" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="160"/>
-      <c r="M9" s="160"/>
-      <c r="N9" s="160"/>
-      <c r="O9" s="160"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="160"/>
-      <c r="AJ9" s="160"/>
-      <c r="AK9" s="160"/>
-      <c r="AL9" s="160"/>
-      <c r="AM9" s="160"/>
-      <c r="AN9" s="160"/>
-      <c r="AO9" s="160"/>
-      <c r="AP9" s="161"/>
-    </row>
-    <row r="10" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="152" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="25"/>
+    </row>
+    <row r="10" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="159"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="160"/>
-      <c r="O10" s="160"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="160"/>
-      <c r="X10" s="160"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="160"/>
-      <c r="AA10" s="160"/>
-      <c r="AB10" s="160"/>
-      <c r="AC10" s="160"/>
-      <c r="AD10" s="160"/>
-      <c r="AE10" s="160"/>
-      <c r="AF10" s="160"/>
-      <c r="AG10" s="160"/>
-      <c r="AH10" s="160"/>
-      <c r="AI10" s="160"/>
-      <c r="AJ10" s="160"/>
-      <c r="AK10" s="160"/>
-      <c r="AL10" s="160"/>
-      <c r="AM10" s="160"/>
-      <c r="AN10" s="160"/>
-      <c r="AO10" s="160"/>
-      <c r="AP10" s="161"/>
-    </row>
-    <row r="11" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="152" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="25"/>
+    </row>
+    <row r="11" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="159"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="160"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="160"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="160"/>
-      <c r="S11" s="160"/>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="160"/>
-      <c r="AA11" s="160"/>
-      <c r="AB11" s="160"/>
-      <c r="AC11" s="160"/>
-      <c r="AD11" s="160"/>
-      <c r="AE11" s="160"/>
-      <c r="AF11" s="160"/>
-      <c r="AG11" s="160"/>
-      <c r="AH11" s="160"/>
-      <c r="AI11" s="160"/>
-      <c r="AJ11" s="160"/>
-      <c r="AK11" s="160"/>
-      <c r="AL11" s="160"/>
-      <c r="AM11" s="160"/>
-      <c r="AN11" s="160"/>
-      <c r="AO11" s="160"/>
-      <c r="AP11" s="161"/>
-    </row>
-    <row r="12" spans="2:42" ht="37" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="152" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="25"/>
+    </row>
+    <row r="12" spans="2:42" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="160"/>
-      <c r="S12" s="160"/>
-      <c r="T12" s="160"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="160"/>
-      <c r="AC12" s="160"/>
-      <c r="AD12" s="160"/>
-      <c r="AE12" s="160"/>
-      <c r="AF12" s="160"/>
-      <c r="AG12" s="160"/>
-      <c r="AH12" s="160"/>
-      <c r="AI12" s="160"/>
-      <c r="AJ12" s="160"/>
-      <c r="AK12" s="160"/>
-      <c r="AL12" s="160"/>
-      <c r="AM12" s="160"/>
-      <c r="AN12" s="160"/>
-      <c r="AO12" s="160"/>
-      <c r="AP12" s="161"/>
-    </row>
-    <row r="13" spans="2:42" ht="37" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="152" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="25"/>
+    </row>
+    <row r="13" spans="2:42" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="159"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="160"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="160"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="160"/>
-      <c r="AC13" s="160"/>
-      <c r="AD13" s="160"/>
-      <c r="AE13" s="160"/>
-      <c r="AF13" s="160"/>
-      <c r="AG13" s="160"/>
-      <c r="AH13" s="160"/>
-      <c r="AI13" s="160"/>
-      <c r="AJ13" s="160"/>
-      <c r="AK13" s="160"/>
-      <c r="AL13" s="160"/>
-      <c r="AM13" s="160"/>
-      <c r="AN13" s="160"/>
-      <c r="AO13" s="160"/>
-      <c r="AP13" s="161"/>
-    </row>
-    <row r="14" spans="2:42" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="152" t="s">
+      <c r="D13" s="164"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="165" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="25"/>
+    </row>
+    <row r="14" spans="2:42" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="153" t="s">
+      <c r="C14" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="159"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="160"/>
-      <c r="AB14" s="160"/>
-      <c r="AC14" s="160"/>
-      <c r="AD14" s="160"/>
-      <c r="AE14" s="160"/>
-      <c r="AF14" s="160"/>
-      <c r="AG14" s="160"/>
-      <c r="AH14" s="160"/>
-      <c r="AI14" s="160"/>
-      <c r="AJ14" s="160"/>
-      <c r="AK14" s="160"/>
-      <c r="AL14" s="160"/>
-      <c r="AM14" s="160"/>
-      <c r="AN14" s="160"/>
-      <c r="AO14" s="160"/>
-      <c r="AP14" s="161"/>
-    </row>
-    <row r="15" spans="2:42" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="152" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="25"/>
+    </row>
+    <row r="15" spans="2:42" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="159"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="160"/>
-      <c r="S15" s="160"/>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="160"/>
-      <c r="AF15" s="160"/>
-      <c r="AG15" s="160"/>
-      <c r="AH15" s="160"/>
-      <c r="AI15" s="160"/>
-      <c r="AJ15" s="160"/>
-      <c r="AK15" s="160"/>
-      <c r="AL15" s="160"/>
-      <c r="AM15" s="160"/>
-      <c r="AN15" s="160"/>
-      <c r="AO15" s="160"/>
-      <c r="AP15" s="161"/>
-    </row>
-    <row r="16" spans="2:42" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="152" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="25"/>
+    </row>
+    <row r="16" spans="2:42" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="153" t="s">
+      <c r="C16" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="160"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="160"/>
-      <c r="AC16" s="160"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="160"/>
-      <c r="AF16" s="160"/>
-      <c r="AG16" s="160"/>
-      <c r="AH16" s="160"/>
-      <c r="AI16" s="160"/>
-      <c r="AJ16" s="160"/>
-      <c r="AK16" s="160"/>
-      <c r="AL16" s="160"/>
-      <c r="AM16" s="160"/>
-      <c r="AN16" s="160"/>
-      <c r="AO16" s="160"/>
-      <c r="AP16" s="161"/>
-    </row>
-    <row r="17" spans="2:42" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="152" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="25"/>
+    </row>
+    <row r="17" spans="2:42" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="153" t="s">
+      <c r="C17" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="159"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="160"/>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="160"/>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="160"/>
-      <c r="AF17" s="160"/>
-      <c r="AG17" s="160"/>
-      <c r="AH17" s="160"/>
-      <c r="AI17" s="160"/>
-      <c r="AJ17" s="160"/>
-      <c r="AK17" s="160"/>
-      <c r="AL17" s="160"/>
-      <c r="AM17" s="160"/>
-      <c r="AN17" s="160"/>
-      <c r="AO17" s="160"/>
-      <c r="AP17" s="161"/>
-    </row>
-    <row r="18" spans="2:42" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="154" t="s">
+      <c r="D17" s="49"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="25"/>
+    </row>
+    <row r="18" spans="2:42" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="162"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="163"/>
-      <c r="S18" s="163"/>
-      <c r="T18" s="163"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="163"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
-      <c r="Y18" s="163"/>
-      <c r="Z18" s="163"/>
-      <c r="AA18" s="163"/>
-      <c r="AB18" s="163"/>
-      <c r="AC18" s="163"/>
-      <c r="AD18" s="163"/>
-      <c r="AE18" s="163"/>
-      <c r="AF18" s="163"/>
-      <c r="AG18" s="163"/>
-      <c r="AH18" s="163"/>
-      <c r="AI18" s="163"/>
-      <c r="AJ18" s="163"/>
-      <c r="AK18" s="163"/>
-      <c r="AL18" s="163"/>
-      <c r="AM18" s="163"/>
-      <c r="AN18" s="163"/>
-      <c r="AO18" s="163"/>
-      <c r="AP18" s="164"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\3DTeam\3DGameTeam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\3DGameTeam\3DGameTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E2FA4983-C271-4B0E-AEF8-A42AA9D777A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{452093F0-DE75-45B2-BC83-73752A7546F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1FAD1F73-1DFD-41DC-BAF3-0D259E247EEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{1FAD1F73-1DFD-41DC-BAF3-0D259E247EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="181" uniqueCount="162">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="182" uniqueCount="163">
   <si>
     <t>ガントチャート</t>
     <phoneticPr fontId="1"/>
@@ -883,22 +883,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>上からおよそ4/5の位置に3画面目くを置く</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ガメンメ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1画面　Player1</t>
     <rPh sb="1" eb="3">
       <t>ガメン</t>
@@ -1508,6 +1492,35 @@
   </si>
   <si>
     <t>END</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上からおよそ4/5の位置に3画面目を置く</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ガメンメ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム時のニュートラルモーションは腕が見えるようにする</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウデ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1688,7 +1701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <start/>
       <end/>
@@ -2322,13 +2335,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2419,12 +2447,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2482,109 +2504,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2605,6 +2675,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2657,159 +2730,114 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2821,11 +2849,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2903,9 +2949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>342527</xdr:colOff>
+      <xdr:colOff>342528</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>28121</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3264,352 +3310,353 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC689AA-D477-4FA5-8B90-69C0329D1886}">
   <dimension ref="B1:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="39.69921875" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="8.8984375" customWidth="1"/>
-    <col min="10" max="10" width="11.19921875" customWidth="1"/>
-    <col min="12" max="12" width="20.796875" customWidth="1"/>
-    <col min="17" max="17" width="36.19921875" customWidth="1"/>
+    <col min="8" max="8" width="8.9140625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="17" max="17" width="50.9140625" customWidth="1"/>
+    <col min="18" max="18" width="8.25" customWidth="1"/>
     <col min="22" max="22" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="E2" s="139" t="s">
+    <row r="1" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="141"/>
-    </row>
-    <row r="3" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E3" s="142"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="144"/>
-    </row>
-    <row r="5" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="110" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+    </row>
+    <row r="3" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="5" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
-      <c r="N6" s="110" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="N6" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="112"/>
-    </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="C7" s="147"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="115"/>
-    </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="115"/>
-    </row>
-    <row r="9" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="152"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="118"/>
-    </row>
-    <row r="10" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="75"/>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="78"/>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="78"/>
+    </row>
+    <row r="9" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="81"/>
+    </row>
+    <row r="10" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C10" s="4"/>
       <c r="J10" s="5"/>
       <c r="N10" s="4"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="C11" s="153" t="s">
+    <row r="11" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="F11" s="157" t="s">
+      <c r="D11" s="67"/>
+      <c r="F11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="158"/>
-      <c r="I11" s="157" t="s">
+      <c r="G11" s="71"/>
+      <c r="I11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="158"/>
+      <c r="J11" s="71"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="119" t="s">
+      <c r="O11" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="121"/>
-      <c r="T11" s="125" t="s">
+      <c r="P11" s="83"/>
+      <c r="Q11" s="84"/>
+      <c r="T11" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="126"/>
-      <c r="V11" s="127"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="90"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="155"/>
-      <c r="D12" s="156"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="160"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
+    <row r="12" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="124"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="129"/>
-      <c r="V12" s="130"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="87"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="93"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="103" t="s">
+    <row r="13" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C13" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="F13" s="138" t="s">
+      <c r="D13" s="119"/>
+      <c r="F13" s="125" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="107" t="d">
+      <c r="I13" s="122" t="d">
         <v>2025-01-20</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="131" t="s">
+      <c r="O13" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="133"/>
-      <c r="T13" s="131" t="s">
+      <c r="P13" s="95"/>
+      <c r="Q13" s="96"/>
+      <c r="T13" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="U13" s="132"/>
-      <c r="V13" s="133"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="96"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="107" t="d">
+    <row r="14" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C14" s="122" t="d">
         <v>2025-01-20</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="108"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="109"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="86" t="d">
+      <c r="O14" s="100" t="d">
         <v>2025-01-20</v>
       </c>
-      <c r="P14" s="87"/>
+      <c r="P14" s="101"/>
       <c r="Q14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T14" s="137" t="s">
+      <c r="T14" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="U14" s="87"/>
+      <c r="U14" s="101"/>
       <c r="V14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="108"/>
+    <row r="15" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C15" s="123"/>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="109"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="5"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="89"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="103"/>
       <c r="Q15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="88"/>
-      <c r="U15" s="89"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="103"/>
       <c r="V15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="108"/>
+    <row r="16" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C16" s="123"/>
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="5"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="89"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="103"/>
       <c r="Q16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="90"/>
-      <c r="U16" s="91"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="105"/>
       <c r="V16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="108"/>
+    <row r="17" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C17" s="123"/>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="5"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="89"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="103"/>
       <c r="Q17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T17" s="131" t="s">
+      <c r="T17" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="U17" s="132"/>
-      <c r="V17" s="133"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="96"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="C18" s="108"/>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="123"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="5"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="89"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="103"/>
       <c r="Q18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T18" s="137" t="s">
+      <c r="T18" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="U18" s="87"/>
+      <c r="U18" s="101"/>
       <c r="V18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="109"/>
+    <row r="19" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C19" s="124"/>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="5"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="91"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="105"/>
       <c r="Q19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="88"/>
-      <c r="U19" s="89"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="103"/>
       <c r="V19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="105" t="s">
+    <row r="20" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C20" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="106"/>
+      <c r="D20" s="121"/>
       <c r="J20" s="5"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="134" t="s">
+      <c r="O20" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="136"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="89"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="99"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="103"/>
       <c r="V20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="C21" s="107" t="d">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="122" t="d">
         <v>2025-01-20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3617,69 +3664,69 @@
       </c>
       <c r="J21" s="5"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="86" t="d">
+      <c r="O21" s="100" t="d">
         <v>2025-01-20</v>
       </c>
-      <c r="P21" s="87"/>
+      <c r="P21" s="101"/>
       <c r="Q21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="88"/>
-      <c r="U21" s="89"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="103"/>
       <c r="V21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C22" s="108"/>
+    <row r="22" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C22" s="123"/>
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="5"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="89"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="103"/>
       <c r="Q22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T22" s="90"/>
-      <c r="U22" s="91"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="105"/>
       <c r="V22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="C23" s="108"/>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="123"/>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="5"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="89"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="103"/>
       <c r="Q23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="108"/>
+    <row r="24" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C24" s="123"/>
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="5"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="91"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="105"/>
       <c r="Q24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="W24" s="5"/>
     </row>
-    <row r="25" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C25" s="108"/>
+    <row r="25" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C25" s="123"/>
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3695,14 +3742,14 @@
       <c r="V25" s="7"/>
       <c r="W25" s="8"/>
     </row>
-    <row r="26" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C26" s="109"/>
+    <row r="26" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C26" s="124"/>
       <c r="D26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3712,72 +3759,77 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="P28" s="61" t="s">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="P28" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="130"/>
+      <c r="V28" s="157" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P29" s="166"/>
+      <c r="Q29" s="164"/>
+      <c r="R29" s="167"/>
+      <c r="V29" s="158"/>
+    </row>
+    <row r="30" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P30" s="168"/>
+      <c r="Q30" s="169" t="s">
         <v>113</v>
       </c>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="63"/>
-      <c r="V28" s="51" t="s">
+      <c r="R30" s="170"/>
+      <c r="V30" s="34" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="P29" s="64"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="66"/>
-      <c r="V29" s="52"/>
-    </row>
-    <row r="30" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="P30" s="4"/>
-      <c r="Q30" s="31" t="s">
+    <row r="31" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="165" t="s">
+        <v>162</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="V31" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P32" s="6"/>
+      <c r="Q32" s="171" t="s">
         <v>114</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="V30" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="P31" s="6"/>
-      <c r="Q31" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="R31" s="8"/>
-      <c r="V31" s="21" t="s">
+      <c r="R32" s="8"/>
+      <c r="V32" s="35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="V32" s="37" t="s">
+    <row r="33" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V33" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="V33" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C34" s="32" t="s">
+    <row r="34" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C34" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="D34" s="33"/>
       <c r="G34" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="92" t="s">
+      <c r="J34" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="94"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="109"/>
       <c r="V34" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C35" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="19"/>
@@ -3791,11 +3843,11 @@
       <c r="L35" s="15"/>
       <c r="M35" s="16"/>
       <c r="V35" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C36" s="32" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="20"/>
@@ -3809,77 +3861,77 @@
       <c r="L36" s="13"/>
       <c r="M36" s="10"/>
       <c r="V36" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V37" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="V37" s="22" t="s">
+    <row r="38" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V38" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="V38" s="21" t="s">
+    <row r="39" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V39" s="35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="V39" s="37" t="s">
+    <row r="40" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="112"/>
+      <c r="I40" s="128" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="129"/>
+      <c r="K40" s="129"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="130"/>
+      <c r="P40" s="128" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="130"/>
+      <c r="V40" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="97"/>
-      <c r="I40" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="63"/>
-      <c r="P40" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="63"/>
-      <c r="V40" s="19" t="s">
+    <row r="41" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B41" s="113"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="115"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="133"/>
+      <c r="P41" s="131"/>
+      <c r="Q41" s="132"/>
+      <c r="R41" s="133"/>
+      <c r="V41" s="22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="98"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="100"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="66"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="66"/>
-      <c r="V41" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="4"/>
-      <c r="C42" s="101" t="s">
+      <c r="C42" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="102"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="5"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="70" t="s">
+      <c r="J42" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="K42" s="71"/>
-      <c r="L42" s="72"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="136"/>
       <c r="M42" s="5"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="24" t="s">
@@ -3887,10 +3939,10 @@
       </c>
       <c r="R42" s="5"/>
       <c r="V42" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="4"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15" t="s">
@@ -3898,11 +3950,11 @@
       </c>
       <c r="E43" s="5"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="55" t="s">
+      <c r="J43" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="K43" s="56"/>
-      <c r="L43" s="57"/>
+      <c r="K43" s="138"/>
+      <c r="L43" s="139"/>
       <c r="M43" s="5"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="18" t="s">
@@ -3910,10 +3962,10 @@
       </c>
       <c r="R43" s="5"/>
       <c r="V43" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12" t="s">
@@ -3921,22 +3973,22 @@
       </c>
       <c r="E44" s="5"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="K44" s="56"/>
-      <c r="L44" s="57"/>
+      <c r="J44" s="137" t="s">
+        <v>161</v>
+      </c>
+      <c r="K44" s="138"/>
+      <c r="L44" s="139"/>
       <c r="M44" s="5"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="19" t="s">
         <v>75</v>
       </c>
       <c r="R44" s="5"/>
-      <c r="V44" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V44" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="4"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17" t="s">
@@ -3944,11 +3996,11 @@
       </c>
       <c r="E45" s="5"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="K45" s="56"/>
-      <c r="L45" s="57"/>
+      <c r="J45" s="137" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45" s="138"/>
+      <c r="L45" s="139"/>
       <c r="M45" s="5"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="19" t="s">
@@ -3956,22 +4008,22 @@
       </c>
       <c r="R45" s="5"/>
       <c r="V45" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B46" s="4"/>
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="77"/>
+      <c r="D46" s="127"/>
       <c r="E46" s="5"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="K46" s="56"/>
-      <c r="L46" s="57"/>
+      <c r="J46" s="137" t="s">
+        <v>88</v>
+      </c>
+      <c r="K46" s="138"/>
+      <c r="L46" s="139"/>
       <c r="M46" s="5"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="19" t="s">
@@ -3979,10 +4031,10 @@
       </c>
       <c r="R46" s="5"/>
       <c r="V46" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B47" s="4"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15" t="s">
@@ -3990,22 +4042,22 @@
       </c>
       <c r="E47" s="5"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="K47" s="59"/>
-      <c r="L47" s="60"/>
+      <c r="J47" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="K47" s="141"/>
+      <c r="L47" s="142"/>
       <c r="M47" s="8"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="19" t="s">
         <v>78</v>
       </c>
       <c r="R47" s="5"/>
-      <c r="V47" s="37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="V47" s="35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12" t="s">
@@ -4018,10 +4070,10 @@
       </c>
       <c r="R48" s="5"/>
       <c r="V48" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12" t="s">
@@ -4034,10 +4086,10 @@
       </c>
       <c r="R49" s="5"/>
       <c r="V49" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12" t="s">
@@ -4050,10 +4102,10 @@
       </c>
       <c r="R50" s="5"/>
       <c r="V50" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B51" s="4"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17" t="s">
@@ -4066,320 +4118,274 @@
       </c>
       <c r="R51" s="5"/>
       <c r="V51" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B52" s="4"/>
-      <c r="C52" s="76" t="s">
+      <c r="C52" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="77"/>
+      <c r="D52" s="127"/>
       <c r="E52" s="5"/>
-      <c r="I52" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="80"/>
+      <c r="I52" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="J52" s="144"/>
+      <c r="K52" s="144"/>
+      <c r="L52" s="144"/>
+      <c r="M52" s="145"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B53" s="4"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15" t="s">
         <v>70</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="83"/>
-    </row>
-    <row r="54" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I53" s="146"/>
+      <c r="J53" s="147"/>
+      <c r="K53" s="147"/>
+      <c r="L53" s="147"/>
+      <c r="M53" s="148"/>
+    </row>
+    <row r="54" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B54" s="6"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="82"/>
-      <c r="M54" s="85"/>
-      <c r="V54" s="53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I54" s="149"/>
+      <c r="J54" s="147"/>
+      <c r="K54" s="147"/>
+      <c r="L54" s="147"/>
+      <c r="M54" s="150"/>
+      <c r="V54" s="159" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I55" s="4"/>
-      <c r="J55" s="67" t="s">
+      <c r="J55" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="K55" s="152"/>
+      <c r="L55" s="153"/>
+      <c r="M55" s="5"/>
+      <c r="V55" s="160"/>
+    </row>
+    <row r="56" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I56" s="4"/>
+      <c r="J56" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="K55" s="68"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="5"/>
-      <c r="V55" s="54"/>
-    </row>
-    <row r="56" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I56" s="4"/>
-      <c r="J56" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="K56" s="71"/>
-      <c r="L56" s="72"/>
+      <c r="K56" s="135"/>
+      <c r="L56" s="136"/>
       <c r="M56" s="5"/>
       <c r="V56" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I57" s="4"/>
-      <c r="J57" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="K57" s="56"/>
-      <c r="L57" s="57"/>
+      <c r="J57" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="K57" s="138"/>
+      <c r="L57" s="139"/>
       <c r="M57" s="5"/>
       <c r="V57" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I58" s="4"/>
-      <c r="J58" s="73" t="s">
+      <c r="J58" s="154" t="s">
+        <v>94</v>
+      </c>
+      <c r="K58" s="155"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I59" s="4"/>
+      <c r="J59" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="K58" s="74"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="5"/>
-    </row>
-    <row r="59" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I59" s="4"/>
-      <c r="J59" s="67" t="s">
+      <c r="K59" s="152"/>
+      <c r="L59" s="153"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="I60" s="4"/>
+      <c r="J60" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="K59" s="68"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="5"/>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="I60" s="4"/>
-      <c r="J60" s="70" t="s">
+      <c r="K60" s="135"/>
+      <c r="L60" s="136"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="I61" s="4"/>
+      <c r="J61" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="K60" s="71"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="5"/>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="I61" s="4"/>
-      <c r="J61" s="55" t="s">
+      <c r="K61" s="138"/>
+      <c r="L61" s="139"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="I62" s="4"/>
+      <c r="J62" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="K61" s="56"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="5"/>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="I62" s="4"/>
-      <c r="J62" s="55" t="s">
+      <c r="K62" s="138"/>
+      <c r="L62" s="139"/>
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I63" s="4"/>
+      <c r="J63" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="K62" s="56"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="5"/>
-    </row>
-    <row r="63" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I63" s="4"/>
-      <c r="J63" s="73" t="s">
+      <c r="K63" s="155"/>
+      <c r="L63" s="156"/>
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I64" s="4"/>
+      <c r="J64" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="K63" s="74"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="5"/>
-    </row>
-    <row r="64" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I64" s="4"/>
-      <c r="J64" s="67" t="s">
+      <c r="K64" s="152"/>
+      <c r="L64" s="153"/>
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="I65" s="4"/>
+      <c r="J65" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="K64" s="68"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="5"/>
-    </row>
-    <row r="65" spans="9:13" x14ac:dyDescent="0.45">
-      <c r="I65" s="4"/>
-      <c r="J65" s="70" t="s">
+      <c r="K65" s="135"/>
+      <c r="L65" s="136"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="I66" s="4"/>
+      <c r="J66" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="K66" s="138"/>
+      <c r="L66" s="139"/>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="I67" s="4"/>
+      <c r="J67" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="K65" s="71"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="5"/>
-    </row>
-    <row r="66" spans="9:13" x14ac:dyDescent="0.45">
-      <c r="I66" s="4"/>
-      <c r="J66" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="K66" s="56"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="5"/>
-    </row>
-    <row r="67" spans="9:13" x14ac:dyDescent="0.45">
-      <c r="I67" s="4"/>
-      <c r="J67" s="55" t="s">
+      <c r="K67" s="138"/>
+      <c r="L67" s="139"/>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="I68" s="4"/>
+      <c r="J68" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="K67" s="56"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="5"/>
-    </row>
-    <row r="68" spans="9:13" x14ac:dyDescent="0.45">
-      <c r="I68" s="4"/>
-      <c r="J68" s="55" t="s">
+      <c r="K68" s="138"/>
+      <c r="L68" s="139"/>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="9:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I69" s="4"/>
+      <c r="J69" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="K68" s="56"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="5"/>
-    </row>
-    <row r="69" spans="9:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I69" s="4"/>
-      <c r="J69" s="73" t="s">
+      <c r="K69" s="155"/>
+      <c r="L69" s="156"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="9:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I70" s="4"/>
+      <c r="J70" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="K69" s="74"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="5"/>
-    </row>
-    <row r="70" spans="9:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I70" s="4"/>
-      <c r="J70" s="67" t="s">
+      <c r="K70" s="152"/>
+      <c r="L70" s="153"/>
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="I71" s="4"/>
+      <c r="J71" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="K70" s="68"/>
-      <c r="L70" s="69"/>
-      <c r="M70" s="5"/>
-    </row>
-    <row r="71" spans="9:13" x14ac:dyDescent="0.45">
-      <c r="I71" s="4"/>
-      <c r="J71" s="70" t="s">
+      <c r="K71" s="135"/>
+      <c r="L71" s="136"/>
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="I72" s="4"/>
+      <c r="J72" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="K72" s="138"/>
+      <c r="L72" s="139"/>
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="I73" s="4"/>
+      <c r="J73" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="K71" s="71"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="5"/>
-    </row>
-    <row r="72" spans="9:13" x14ac:dyDescent="0.45">
-      <c r="I72" s="4"/>
-      <c r="J72" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="K72" s="56"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="5"/>
-    </row>
-    <row r="73" spans="9:13" x14ac:dyDescent="0.45">
-      <c r="I73" s="4"/>
-      <c r="J73" s="55" t="s">
+      <c r="K73" s="138"/>
+      <c r="L73" s="139"/>
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="I74" s="4"/>
+      <c r="J74" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="K73" s="56"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="5"/>
-    </row>
-    <row r="74" spans="9:13" x14ac:dyDescent="0.45">
-      <c r="I74" s="4"/>
-      <c r="J74" s="55" t="s">
+      <c r="K74" s="138"/>
+      <c r="L74" s="139"/>
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="I75" s="4"/>
+      <c r="J75" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="K74" s="56"/>
-      <c r="L74" s="57"/>
-      <c r="M74" s="5"/>
-    </row>
-    <row r="75" spans="9:13" x14ac:dyDescent="0.45">
-      <c r="I75" s="4"/>
-      <c r="J75" s="55" t="s">
+      <c r="K75" s="138"/>
+      <c r="L75" s="139"/>
+      <c r="M75" s="5"/>
+    </row>
+    <row r="76" spans="9:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="I76" s="4"/>
+      <c r="J76" s="137" t="s">
         <v>110</v>
       </c>
-      <c r="K75" s="56"/>
-      <c r="L75" s="57"/>
-      <c r="M75" s="5"/>
-    </row>
-    <row r="76" spans="9:13" x14ac:dyDescent="0.45">
-      <c r="I76" s="4"/>
-      <c r="J76" s="55" t="s">
+      <c r="K76" s="138"/>
+      <c r="L76" s="139"/>
+      <c r="M76" s="5"/>
+    </row>
+    <row r="77" spans="9:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I77" s="6"/>
+      <c r="J77" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="K76" s="56"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="5"/>
-    </row>
-    <row r="77" spans="9:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I77" s="6"/>
-      <c r="J77" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="K77" s="59"/>
-      <c r="L77" s="60"/>
+      <c r="K77" s="141"/>
+      <c r="L77" s="142"/>
       <c r="M77" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="C6:J9"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="N6:W9"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="T11:V12"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O14:P19"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T14:U16"/>
-    <mergeCell ref="T18:U22"/>
-    <mergeCell ref="O21:P24"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="B40:E41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="P40:R41"/>
-    <mergeCell ref="I40:M41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="I52:M54"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="J64:L64"/>
     <mergeCell ref="V28:V29"/>
     <mergeCell ref="V54:V55"/>
     <mergeCell ref="J75:L75"/>
@@ -4396,6 +4402,52 @@
     <mergeCell ref="J67:L67"/>
     <mergeCell ref="J68:L68"/>
     <mergeCell ref="J69:L69"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="P40:R41"/>
+    <mergeCell ref="I40:M41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="I52:M54"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="B40:E41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="N6:W9"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="T11:V12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O14:P19"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T14:U16"/>
+    <mergeCell ref="T18:U22"/>
+    <mergeCell ref="O21:P24"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="C6:J9"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="I11:J12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4413,167 +4465,167 @@
       <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" customWidth="1"/>
-    <col min="2" max="2" width="38.69921875" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="K2" s="161" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB2" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="AB2" s="162" t="s">
+      <c r="AP2" s="162" t="s">
         <v>154</v>
       </c>
-      <c r="AP2" s="162" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="2:42" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="K3" s="162"/>
       <c r="AB3" s="162"/>
       <c r="AP3" s="162"/>
     </row>
-    <row r="4" spans="2:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:42" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K4" s="163"/>
       <c r="AB4" s="163"/>
       <c r="AP4" s="163"/>
     </row>
-    <row r="5" spans="2:42" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="41" t="s">
+    <row r="5" spans="2:42" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="38" t="d">
+        <v>2025-01-21</v>
+      </c>
+      <c r="E5" s="36" t="d">
+        <v>2025-01-22</v>
+      </c>
+      <c r="F5" s="36" t="d">
+        <v>2025-01-23</v>
+      </c>
+      <c r="G5" s="36" t="d">
+        <v>2025-01-24</v>
+      </c>
+      <c r="H5" s="36" t="d">
+        <v>2025-01-25</v>
+      </c>
+      <c r="I5" s="36" t="d">
+        <v>2025-01-26</v>
+      </c>
+      <c r="J5" s="36" t="d">
+        <v>2025-01-27</v>
+      </c>
+      <c r="K5" s="36" t="d">
+        <v>2025-01-28</v>
+      </c>
+      <c r="L5" s="36" t="d">
+        <v>2025-01-29</v>
+      </c>
+      <c r="M5" s="36" t="d">
+        <v>2025-01-30</v>
+      </c>
+      <c r="N5" s="36" t="d">
+        <v>2025-01-31</v>
+      </c>
+      <c r="O5" s="36" t="d">
+        <v>2025-02-01</v>
+      </c>
+      <c r="P5" s="36" t="d">
+        <v>2025-02-02</v>
+      </c>
+      <c r="Q5" s="36" t="d">
+        <v>2025-02-03</v>
+      </c>
+      <c r="R5" s="36" t="d">
+        <v>2025-02-04</v>
+      </c>
+      <c r="S5" s="36" t="d">
+        <v>2025-02-05</v>
+      </c>
+      <c r="T5" s="36" t="d">
+        <v>2025-02-06</v>
+      </c>
+      <c r="U5" s="36" t="d">
+        <v>2025-02-07</v>
+      </c>
+      <c r="V5" s="36" t="d">
+        <v>2025-02-08</v>
+      </c>
+      <c r="W5" s="36" t="d">
+        <v>2025-02-09</v>
+      </c>
+      <c r="X5" s="36" t="d">
+        <v>2025-02-10</v>
+      </c>
+      <c r="Y5" s="36" t="d">
+        <v>2025-02-11</v>
+      </c>
+      <c r="Z5" s="36" t="d">
+        <v>2025-02-12</v>
+      </c>
+      <c r="AA5" s="36" t="d">
+        <v>2025-02-13</v>
+      </c>
+      <c r="AB5" s="36" t="d">
+        <v>2025-02-14</v>
+      </c>
+      <c r="AC5" s="36" t="d">
+        <v>2025-02-15</v>
+      </c>
+      <c r="AD5" s="36" t="d">
+        <v>2025-02-16</v>
+      </c>
+      <c r="AE5" s="36" t="d">
+        <v>2025-02-17</v>
+      </c>
+      <c r="AF5" s="36" t="d">
+        <v>2025-02-18</v>
+      </c>
+      <c r="AG5" s="36" t="d">
+        <v>2025-02-19</v>
+      </c>
+      <c r="AH5" s="36" t="d">
+        <v>2025-02-20</v>
+      </c>
+      <c r="AI5" s="36" t="d">
+        <v>2025-02-21</v>
+      </c>
+      <c r="AJ5" s="36" t="d">
+        <v>2025-02-22</v>
+      </c>
+      <c r="AK5" s="36" t="d">
+        <v>2025-02-23</v>
+      </c>
+      <c r="AL5" s="36" t="d">
+        <v>2025-02-24</v>
+      </c>
+      <c r="AM5" s="36" t="d">
+        <v>2025-02-25</v>
+      </c>
+      <c r="AN5" s="36" t="d">
+        <v>2025-02-26</v>
+      </c>
+      <c r="AO5" s="36" t="d">
+        <v>2025-02-27</v>
+      </c>
+      <c r="AP5" s="37" t="d">
+        <v>2025-02-28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="40" t="d">
-        <v>2025-01-21</v>
-      </c>
-      <c r="E5" s="38" t="d">
-        <v>2025-01-22</v>
-      </c>
-      <c r="F5" s="38" t="d">
-        <v>2025-01-23</v>
-      </c>
-      <c r="G5" s="38" t="d">
-        <v>2025-01-24</v>
-      </c>
-      <c r="H5" s="38" t="d">
-        <v>2025-01-25</v>
-      </c>
-      <c r="I5" s="38" t="d">
-        <v>2025-01-26</v>
-      </c>
-      <c r="J5" s="38" t="d">
-        <v>2025-01-27</v>
-      </c>
-      <c r="K5" s="38" t="d">
-        <v>2025-01-28</v>
-      </c>
-      <c r="L5" s="38" t="d">
-        <v>2025-01-29</v>
-      </c>
-      <c r="M5" s="38" t="d">
-        <v>2025-01-30</v>
-      </c>
-      <c r="N5" s="38" t="d">
-        <v>2025-01-31</v>
-      </c>
-      <c r="O5" s="38" t="d">
-        <v>2025-02-01</v>
-      </c>
-      <c r="P5" s="38" t="d">
-        <v>2025-02-02</v>
-      </c>
-      <c r="Q5" s="38" t="d">
-        <v>2025-02-03</v>
-      </c>
-      <c r="R5" s="38" t="d">
-        <v>2025-02-04</v>
-      </c>
-      <c r="S5" s="38" t="d">
-        <v>2025-02-05</v>
-      </c>
-      <c r="T5" s="38" t="d">
-        <v>2025-02-06</v>
-      </c>
-      <c r="U5" s="38" t="d">
-        <v>2025-02-07</v>
-      </c>
-      <c r="V5" s="38" t="d">
-        <v>2025-02-08</v>
-      </c>
-      <c r="W5" s="38" t="d">
-        <v>2025-02-09</v>
-      </c>
-      <c r="X5" s="38" t="d">
-        <v>2025-02-10</v>
-      </c>
-      <c r="Y5" s="38" t="d">
-        <v>2025-02-11</v>
-      </c>
-      <c r="Z5" s="38" t="d">
-        <v>2025-02-12</v>
-      </c>
-      <c r="AA5" s="38" t="d">
-        <v>2025-02-13</v>
-      </c>
-      <c r="AB5" s="38" t="d">
-        <v>2025-02-14</v>
-      </c>
-      <c r="AC5" s="38" t="d">
-        <v>2025-02-15</v>
-      </c>
-      <c r="AD5" s="38" t="d">
-        <v>2025-02-16</v>
-      </c>
-      <c r="AE5" s="38" t="d">
-        <v>2025-02-17</v>
-      </c>
-      <c r="AF5" s="38" t="d">
-        <v>2025-02-18</v>
-      </c>
-      <c r="AG5" s="38" t="d">
-        <v>2025-02-19</v>
-      </c>
-      <c r="AH5" s="38" t="d">
-        <v>2025-02-20</v>
-      </c>
-      <c r="AI5" s="38" t="d">
-        <v>2025-02-21</v>
-      </c>
-      <c r="AJ5" s="38" t="d">
-        <v>2025-02-22</v>
-      </c>
-      <c r="AK5" s="38" t="d">
-        <v>2025-02-23</v>
-      </c>
-      <c r="AL5" s="38" t="d">
-        <v>2025-02-24</v>
-      </c>
-      <c r="AM5" s="38" t="d">
-        <v>2025-02-25</v>
-      </c>
-      <c r="AN5" s="38" t="d">
-        <v>2025-02-26</v>
-      </c>
-      <c r="AO5" s="38" t="d">
-        <v>2025-02-27</v>
-      </c>
-      <c r="AP5" s="39" t="d">
-        <v>2025-02-28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:42" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>160</v>
+      <c r="C6" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>159</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -4614,15 +4666,15 @@
       <c r="AO6" s="28"/>
       <c r="AP6" s="29"/>
     </row>
-    <row r="7" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>160</v>
+    <row r="7" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>159</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -4663,14 +4715,14 @@
       <c r="AO7" s="11"/>
       <c r="AP7" s="25"/>
     </row>
-    <row r="8" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="44" t="s">
+    <row r="8" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="49"/>
+      <c r="C8" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="47"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -4710,14 +4762,14 @@
       <c r="AO8" s="11"/>
       <c r="AP8" s="25"/>
     </row>
-    <row r="9" spans="2:42" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="44" t="s">
+    <row r="9" spans="2:42" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="49"/>
+      <c r="C9" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="47"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -4757,14 +4809,14 @@
       <c r="AO9" s="11"/>
       <c r="AP9" s="25"/>
     </row>
-    <row r="10" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="49"/>
+    <row r="10" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="47"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -4804,14 +4856,14 @@
       <c r="AO10" s="11"/>
       <c r="AP10" s="25"/>
     </row>
-    <row r="11" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="49"/>
+    <row r="11" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="47"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -4851,14 +4903,14 @@
       <c r="AO11" s="11"/>
       <c r="AP11" s="25"/>
     </row>
-    <row r="12" spans="2:42" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="45" t="s">
+    <row r="12" spans="2:42" ht="37" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="C12" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="47"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -4898,17 +4950,17 @@
       <c r="AO12" s="11"/>
       <c r="AP12" s="25"/>
     </row>
-    <row r="13" spans="2:42" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="164"/>
+    <row r="13" spans="2:42" ht="37" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="49"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="165" t="s">
-        <v>161</v>
+      <c r="F13" s="50" t="s">
+        <v>160</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -4947,14 +4999,14 @@
       <c r="AO13" s="11"/>
       <c r="AP13" s="25"/>
     </row>
-    <row r="14" spans="2:42" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="2:42" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="49"/>
+      <c r="C14" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="47"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -4994,14 +5046,14 @@
       <c r="AO14" s="11"/>
       <c r="AP14" s="25"/>
     </row>
-    <row r="15" spans="2:42" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="49"/>
+    <row r="15" spans="2:42" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="47"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -5041,14 +5093,14 @@
       <c r="AO15" s="11"/>
       <c r="AP15" s="25"/>
     </row>
-    <row r="16" spans="2:42" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="49"/>
+    <row r="16" spans="2:42" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="47"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -5088,14 +5140,14 @@
       <c r="AO16" s="11"/>
       <c r="AP16" s="25"/>
     </row>
-    <row r="17" spans="2:42" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="49"/>
+    <row r="17" spans="2:42" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="47"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -5135,14 +5187,14 @@
       <c r="AO17" s="11"/>
       <c r="AP17" s="25"/>
     </row>
-    <row r="18" spans="2:42" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="50"/>
+    <row r="18" spans="2:42" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="48"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\3DGameTeam\3DGameTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{452093F0-DE75-45B2-BC83-73752A7546F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3B8BDFB8-920B-4267-B46E-724A3927FECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{1FAD1F73-1DFD-41DC-BAF3-0D259E247EEB}"/>
   </bookViews>
@@ -810,17 +810,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Q　アイテム一覧</t>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ESC　ポーズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マウスカーソル　視点操作</t>
     <rPh sb="8" eb="12">
       <t>シテンソウサ</t>
@@ -1520,6 +1509,17 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAB　ポーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B　アイテム一覧(バッグのB)</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2356,7 +2356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2510,172 +2510,130 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2735,109 +2693,172 @@
     <xf numFmtId="56" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2848,30 +2869,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3310,8 +3307,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC689AA-D477-4FA5-8B90-69C0329D1886}">
   <dimension ref="B1:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" topLeftCell="H24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3329,101 +3326,101 @@
   <sheetData>
     <row r="1" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="148"/>
     </row>
     <row r="3" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="151"/>
     </row>
     <row r="5" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="6" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
-      <c r="N6" s="57" t="s">
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
+      <c r="N6" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="75"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="114"/>
     </row>
     <row r="7" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="78"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="156"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="117"/>
     </row>
     <row r="8" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="78"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="156"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="117"/>
     </row>
     <row r="9" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="81"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="120"/>
     </row>
     <row r="10" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C10" s="4"/>
@@ -3432,231 +3429,231 @@
       <c r="W10" s="5"/>
     </row>
     <row r="11" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="F11" s="70" t="s">
+      <c r="D11" s="161"/>
+      <c r="F11" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="71"/>
-      <c r="I11" s="70" t="s">
+      <c r="G11" s="165"/>
+      <c r="I11" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="71"/>
+      <c r="J11" s="165"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="82" t="s">
+      <c r="O11" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="84"/>
-      <c r="T11" s="88" t="s">
+      <c r="P11" s="122"/>
+      <c r="Q11" s="123"/>
+      <c r="T11" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="89"/>
-      <c r="V11" s="90"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="129"/>
       <c r="W11" s="5"/>
     </row>
     <row r="12" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="163"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="167"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="167"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="87"/>
-      <c r="T12" s="91"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="93"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="126"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="132"/>
       <c r="W12" s="5"/>
     </row>
     <row r="13" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="F13" s="125" t="s">
+      <c r="D13" s="105"/>
+      <c r="F13" s="111" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="122" t="d">
+      <c r="I13" s="108" t="d">
         <v>2025-01-20</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="94" t="s">
+      <c r="O13" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="96"/>
-      <c r="T13" s="94" t="s">
+      <c r="P13" s="134"/>
+      <c r="Q13" s="135"/>
+      <c r="T13" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="U13" s="95"/>
-      <c r="V13" s="96"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="135"/>
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C14" s="122" t="d">
+      <c r="C14" s="108" t="d">
         <v>2025-01-20</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="123"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="124"/>
+      <c r="I14" s="110"/>
       <c r="J14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="100" t="d">
+      <c r="O14" s="139" t="d">
         <v>2025-01-20</v>
       </c>
-      <c r="P14" s="101"/>
+      <c r="P14" s="140"/>
       <c r="Q14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T14" s="106" t="s">
+      <c r="T14" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="U14" s="101"/>
+      <c r="U14" s="140"/>
       <c r="V14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C15" s="123"/>
+      <c r="C15" s="109"/>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="124"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="5"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="103"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="142"/>
       <c r="Q15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="102"/>
-      <c r="U15" s="103"/>
+      <c r="T15" s="141"/>
+      <c r="U15" s="142"/>
       <c r="V15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C16" s="123"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="5"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="103"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="142"/>
       <c r="Q16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="104"/>
-      <c r="U16" s="105"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="144"/>
       <c r="V16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C17" s="123"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="5"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="103"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="142"/>
       <c r="Q17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T17" s="94" t="s">
+      <c r="T17" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="U17" s="95"/>
-      <c r="V17" s="96"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="135"/>
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="123"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="5"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="103"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="142"/>
       <c r="Q18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T18" s="106" t="s">
+      <c r="T18" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="U18" s="101"/>
+      <c r="U18" s="140"/>
       <c r="V18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C19" s="124"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="5"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="105"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="144"/>
       <c r="Q19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="102"/>
-      <c r="U19" s="103"/>
+      <c r="T19" s="141"/>
+      <c r="U19" s="142"/>
       <c r="V19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="W19" s="5"/>
     </row>
     <row r="20" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="121"/>
+      <c r="D20" s="107"/>
       <c r="J20" s="5"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="97" t="s">
+      <c r="O20" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="99"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="103"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="138"/>
+      <c r="T20" s="141"/>
+      <c r="U20" s="142"/>
       <c r="V20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="W20" s="5"/>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="122" t="d">
+      <c r="C21" s="108" t="d">
         <v>2025-01-20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3664,69 +3661,69 @@
       </c>
       <c r="J21" s="5"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="100" t="d">
+      <c r="O21" s="139" t="d">
         <v>2025-01-20</v>
       </c>
-      <c r="P21" s="101"/>
+      <c r="P21" s="140"/>
       <c r="Q21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="102"/>
-      <c r="U21" s="103"/>
+      <c r="T21" s="141"/>
+      <c r="U21" s="142"/>
       <c r="V21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="W21" s="5"/>
     </row>
     <row r="22" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C22" s="123"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="5"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="103"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="142"/>
       <c r="Q22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T22" s="104"/>
-      <c r="U22" s="105"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="144"/>
       <c r="V22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="W22" s="5"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="123"/>
+      <c r="C23" s="109"/>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="5"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="103"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="142"/>
       <c r="Q23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="W23" s="5"/>
     </row>
     <row r="24" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C24" s="123"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="5"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="105"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="144"/>
       <c r="Q24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="W24" s="5"/>
     </row>
     <row r="25" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C25" s="123"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3743,7 +3740,7 @@
       <c r="W25" s="8"/>
     </row>
     <row r="26" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C26" s="124"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="3" t="s">
         <v>16</v>
       </c>
@@ -3760,54 +3757,54 @@
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="P28" s="128" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="130"/>
-      <c r="V28" s="157" t="s">
-        <v>115</v>
+      <c r="P28" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="67"/>
+      <c r="V28" s="55" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="P29" s="166"/>
-      <c r="Q29" s="164"/>
-      <c r="R29" s="167"/>
-      <c r="V29" s="158"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="70"/>
+      <c r="V29" s="56"/>
     </row>
     <row r="30" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="P30" s="168"/>
-      <c r="Q30" s="169" t="s">
-        <v>113</v>
-      </c>
-      <c r="R30" s="170"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="R30" s="53"/>
       <c r="V30" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="P31" s="4"/>
-      <c r="Q31" s="165" t="s">
-        <v>162</v>
+      <c r="Q31" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="R31" s="5"/>
       <c r="V31" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="P32" s="6"/>
-      <c r="Q32" s="171" t="s">
-        <v>114</v>
+      <c r="Q32" s="54" t="s">
+        <v>112</v>
       </c>
       <c r="R32" s="8"/>
       <c r="V32" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="V33" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3818,14 +3815,14 @@
       <c r="G34" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="107" t="s">
+      <c r="J34" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="109"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="95"/>
       <c r="V34" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -3843,7 +3840,7 @@
       <c r="L35" s="15"/>
       <c r="M35" s="16"/>
       <c r="V35" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3861,77 +3858,77 @@
       <c r="L36" s="13"/>
       <c r="M36" s="10"/>
       <c r="V36" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="V37" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="V38" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="V39" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="98"/>
+      <c r="I40" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="67"/>
+      <c r="P40" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="67"/>
+      <c r="V40" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B41" s="99"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="101"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="84"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="84"/>
+      <c r="V41" s="22" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="112"/>
-      <c r="I40" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="J40" s="129"/>
-      <c r="K40" s="129"/>
-      <c r="L40" s="129"/>
-      <c r="M40" s="130"/>
-      <c r="P40" s="128" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q40" s="129"/>
-      <c r="R40" s="130"/>
-      <c r="V40" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B41" s="113"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="115"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="132"/>
-      <c r="K41" s="132"/>
-      <c r="L41" s="132"/>
-      <c r="M41" s="133"/>
-      <c r="P41" s="131"/>
-      <c r="Q41" s="132"/>
-      <c r="R41" s="133"/>
-      <c r="V41" s="22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="42" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="4"/>
-      <c r="C42" s="116" t="s">
+      <c r="C42" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="117"/>
+      <c r="D42" s="103"/>
       <c r="E42" s="5"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="134" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42" s="135"/>
-      <c r="L42" s="136"/>
+      <c r="J42" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="K42" s="75"/>
+      <c r="L42" s="76"/>
       <c r="M42" s="5"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="24" t="s">
@@ -3939,7 +3936,7 @@
       </c>
       <c r="R42" s="5"/>
       <c r="V42" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3950,11 +3947,11 @@
       </c>
       <c r="E43" s="5"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43" s="138"/>
-      <c r="L43" s="139"/>
+      <c r="J43" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43" s="60"/>
+      <c r="L43" s="61"/>
       <c r="M43" s="5"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="18" t="s">
@@ -3962,7 +3959,7 @@
       </c>
       <c r="R43" s="5"/>
       <c r="V43" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -3973,11 +3970,11 @@
       </c>
       <c r="E44" s="5"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="137" t="s">
-        <v>161</v>
-      </c>
-      <c r="K44" s="138"/>
-      <c r="L44" s="139"/>
+      <c r="J44" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="K44" s="60"/>
+      <c r="L44" s="61"/>
       <c r="M44" s="5"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="19" t="s">
@@ -3985,7 +3982,7 @@
       </c>
       <c r="R44" s="5"/>
       <c r="V44" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3996,11 +3993,11 @@
       </c>
       <c r="E45" s="5"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="K45" s="138"/>
-      <c r="L45" s="139"/>
+      <c r="J45" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="K45" s="60"/>
+      <c r="L45" s="61"/>
       <c r="M45" s="5"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="19" t="s">
@@ -4008,30 +4005,30 @@
       </c>
       <c r="R45" s="5"/>
       <c r="V45" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B46" s="4"/>
-      <c r="C46" s="126" t="s">
+      <c r="C46" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="127"/>
+      <c r="D46" s="81"/>
       <c r="E46" s="5"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="137" t="s">
-        <v>88</v>
-      </c>
-      <c r="K46" s="138"/>
-      <c r="L46" s="139"/>
+      <c r="J46" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="K46" s="60"/>
+      <c r="L46" s="61"/>
       <c r="M46" s="5"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="19" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="R46" s="5"/>
       <c r="V46" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -4042,19 +4039,19 @@
       </c>
       <c r="E47" s="5"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="140" t="s">
-        <v>89</v>
-      </c>
-      <c r="K47" s="141"/>
-      <c r="L47" s="142"/>
+      <c r="J47" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="K47" s="63"/>
+      <c r="L47" s="64"/>
       <c r="M47" s="8"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="19" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="R47" s="5"/>
       <c r="V47" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -4066,11 +4063,11 @@
       <c r="E48" s="5"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R48" s="5"/>
       <c r="V48" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -4082,11 +4079,11 @@
       <c r="E49" s="5"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R49" s="5"/>
       <c r="V49" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -4098,11 +4095,11 @@
       <c r="E50" s="5"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R50" s="5"/>
       <c r="V50" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -4114,30 +4111,30 @@
       <c r="E51" s="5"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R51" s="5"/>
       <c r="V51" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B52" s="4"/>
-      <c r="C52" s="126" t="s">
+      <c r="C52" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="127"/>
+      <c r="D52" s="81"/>
       <c r="E52" s="5"/>
-      <c r="I52" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="J52" s="144"/>
-      <c r="K52" s="144"/>
-      <c r="L52" s="144"/>
-      <c r="M52" s="145"/>
+      <c r="I52" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="J52" s="86"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="86"/>
+      <c r="M52" s="87"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R52" s="8"/>
     </row>
@@ -4148,11 +4145,11 @@
         <v>70</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="I53" s="146"/>
-      <c r="J53" s="147"/>
-      <c r="K53" s="147"/>
-      <c r="L53" s="147"/>
-      <c r="M53" s="148"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="90"/>
     </row>
     <row r="54" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B54" s="6"/>
@@ -4161,231 +4158,277 @@
         <v>71</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="I54" s="149"/>
-      <c r="J54" s="147"/>
-      <c r="K54" s="147"/>
-      <c r="L54" s="147"/>
-      <c r="M54" s="150"/>
-      <c r="V54" s="159" t="s">
-        <v>138</v>
+      <c r="I54" s="91"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
+      <c r="M54" s="92"/>
+      <c r="V54" s="57" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I55" s="4"/>
-      <c r="J55" s="151" t="s">
-        <v>91</v>
-      </c>
-      <c r="K55" s="152"/>
-      <c r="L55" s="153"/>
+      <c r="J55" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="K55" s="72"/>
+      <c r="L55" s="73"/>
       <c r="M55" s="5"/>
-      <c r="V55" s="160"/>
+      <c r="V55" s="58"/>
     </row>
     <row r="56" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I56" s="4"/>
-      <c r="J56" s="134" t="s">
-        <v>92</v>
-      </c>
-      <c r="K56" s="135"/>
-      <c r="L56" s="136"/>
+      <c r="J56" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="K56" s="75"/>
+      <c r="L56" s="76"/>
       <c r="M56" s="5"/>
       <c r="V56" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I57" s="4"/>
-      <c r="J57" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="K57" s="138"/>
-      <c r="L57" s="139"/>
+      <c r="J57" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="60"/>
+      <c r="L57" s="61"/>
       <c r="M57" s="5"/>
       <c r="V57" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I58" s="4"/>
-      <c r="J58" s="154" t="s">
-        <v>94</v>
-      </c>
-      <c r="K58" s="155"/>
-      <c r="L58" s="156"/>
+      <c r="J58" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="K58" s="78"/>
+      <c r="L58" s="79"/>
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I59" s="4"/>
-      <c r="J59" s="151" t="s">
-        <v>95</v>
-      </c>
-      <c r="K59" s="152"/>
-      <c r="L59" s="153"/>
+      <c r="J59" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="K59" s="72"/>
+      <c r="L59" s="73"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="I60" s="4"/>
-      <c r="J60" s="134" t="s">
-        <v>96</v>
-      </c>
-      <c r="K60" s="135"/>
-      <c r="L60" s="136"/>
+      <c r="J60" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="K60" s="75"/>
+      <c r="L60" s="76"/>
       <c r="M60" s="5"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="I61" s="4"/>
-      <c r="J61" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="K61" s="138"/>
-      <c r="L61" s="139"/>
+      <c r="J61" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="K61" s="60"/>
+      <c r="L61" s="61"/>
       <c r="M61" s="5"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="I62" s="4"/>
-      <c r="J62" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="K62" s="138"/>
-      <c r="L62" s="139"/>
+      <c r="J62" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="K62" s="60"/>
+      <c r="L62" s="61"/>
       <c r="M62" s="5"/>
     </row>
     <row r="63" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I63" s="4"/>
-      <c r="J63" s="154" t="s">
-        <v>99</v>
-      </c>
-      <c r="K63" s="155"/>
-      <c r="L63" s="156"/>
+      <c r="J63" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="K63" s="78"/>
+      <c r="L63" s="79"/>
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I64" s="4"/>
-      <c r="J64" s="151" t="s">
-        <v>100</v>
-      </c>
-      <c r="K64" s="152"/>
-      <c r="L64" s="153"/>
+      <c r="J64" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="K64" s="72"/>
+      <c r="L64" s="73"/>
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I65" s="4"/>
-      <c r="J65" s="134" t="s">
-        <v>101</v>
-      </c>
-      <c r="K65" s="135"/>
-      <c r="L65" s="136"/>
+      <c r="J65" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="K65" s="75"/>
+      <c r="L65" s="76"/>
       <c r="M65" s="5"/>
     </row>
     <row r="66" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I66" s="4"/>
-      <c r="J66" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="K66" s="138"/>
-      <c r="L66" s="139"/>
+      <c r="J66" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="60"/>
+      <c r="L66" s="61"/>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I67" s="4"/>
-      <c r="J67" s="137" t="s">
-        <v>102</v>
-      </c>
-      <c r="K67" s="138"/>
-      <c r="L67" s="139"/>
+      <c r="J67" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="K67" s="60"/>
+      <c r="L67" s="61"/>
       <c r="M67" s="5"/>
     </row>
     <row r="68" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I68" s="4"/>
-      <c r="J68" s="137" t="s">
-        <v>103</v>
-      </c>
-      <c r="K68" s="138"/>
-      <c r="L68" s="139"/>
+      <c r="J68" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="K68" s="60"/>
+      <c r="L68" s="61"/>
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="9:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I69" s="4"/>
-      <c r="J69" s="154" t="s">
-        <v>104</v>
-      </c>
-      <c r="K69" s="155"/>
-      <c r="L69" s="156"/>
+      <c r="J69" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="K69" s="78"/>
+      <c r="L69" s="79"/>
       <c r="M69" s="5"/>
     </row>
     <row r="70" spans="9:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I70" s="4"/>
-      <c r="J70" s="151" t="s">
-        <v>105</v>
-      </c>
-      <c r="K70" s="152"/>
-      <c r="L70" s="153"/>
+      <c r="J70" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="K70" s="72"/>
+      <c r="L70" s="73"/>
       <c r="M70" s="5"/>
     </row>
     <row r="71" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I71" s="4"/>
-      <c r="J71" s="134" t="s">
-        <v>106</v>
-      </c>
-      <c r="K71" s="135"/>
-      <c r="L71" s="136"/>
+      <c r="J71" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="K71" s="75"/>
+      <c r="L71" s="76"/>
       <c r="M71" s="5"/>
     </row>
     <row r="72" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I72" s="4"/>
-      <c r="J72" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="K72" s="138"/>
-      <c r="L72" s="139"/>
+      <c r="J72" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="K72" s="60"/>
+      <c r="L72" s="61"/>
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I73" s="4"/>
-      <c r="J73" s="137" t="s">
-        <v>107</v>
-      </c>
-      <c r="K73" s="138"/>
-      <c r="L73" s="139"/>
+      <c r="J73" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="K73" s="60"/>
+      <c r="L73" s="61"/>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I74" s="4"/>
-      <c r="J74" s="137" t="s">
-        <v>108</v>
-      </c>
-      <c r="K74" s="138"/>
-      <c r="L74" s="139"/>
+      <c r="J74" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="K74" s="60"/>
+      <c r="L74" s="61"/>
       <c r="M74" s="5"/>
     </row>
     <row r="75" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I75" s="4"/>
-      <c r="J75" s="137" t="s">
-        <v>109</v>
-      </c>
-      <c r="K75" s="138"/>
-      <c r="L75" s="139"/>
+      <c r="J75" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K75" s="60"/>
+      <c r="L75" s="61"/>
       <c r="M75" s="5"/>
     </row>
     <row r="76" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I76" s="4"/>
-      <c r="J76" s="137" t="s">
-        <v>110</v>
-      </c>
-      <c r="K76" s="138"/>
-      <c r="L76" s="139"/>
+      <c r="J76" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="K76" s="60"/>
+      <c r="L76" s="61"/>
       <c r="M76" s="5"/>
     </row>
     <row r="77" spans="9:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I77" s="6"/>
-      <c r="J77" s="140" t="s">
-        <v>111</v>
-      </c>
-      <c r="K77" s="141"/>
-      <c r="L77" s="142"/>
+      <c r="J77" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="K77" s="63"/>
+      <c r="L77" s="64"/>
       <c r="M77" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="C6:J9"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="N6:W9"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="T11:V12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O14:P19"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T14:U16"/>
+    <mergeCell ref="T18:U22"/>
+    <mergeCell ref="O21:P24"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="B40:E41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="P40:R41"/>
+    <mergeCell ref="I40:M41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="I52:M54"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="J64:L64"/>
     <mergeCell ref="V28:V29"/>
     <mergeCell ref="V54:V55"/>
     <mergeCell ref="J75:L75"/>
@@ -4402,52 +4445,6 @@
     <mergeCell ref="J67:L67"/>
     <mergeCell ref="J68:L68"/>
     <mergeCell ref="J69:L69"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="P40:R41"/>
-    <mergeCell ref="I40:M41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="I52:M54"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="B40:E41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="N6:W9"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="T11:V12"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O14:P19"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T14:U16"/>
-    <mergeCell ref="T18:U22"/>
-    <mergeCell ref="O21:P24"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="C6:J9"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="I11:J12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4472,32 +4469,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="K2" s="161" t="s">
+      <c r="K2" s="168" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB2" s="169" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP2" s="169" t="s">
         <v>152</v>
       </c>
-      <c r="AB2" s="162" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP2" s="162" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="K3" s="162"/>
-      <c r="AB3" s="162"/>
-      <c r="AP3" s="162"/>
+      <c r="K3" s="169"/>
+      <c r="AB3" s="169"/>
+      <c r="AP3" s="169"/>
     </row>
     <row r="4" spans="2:42" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="K4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AP4" s="163"/>
+      <c r="K4" s="170"/>
+      <c r="AB4" s="170"/>
+      <c r="AP4" s="170"/>
     </row>
     <row r="5" spans="2:42" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>155</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>157</v>
       </c>
       <c r="D5" s="38" t="d">
         <v>2025-01-21</v>
@@ -4619,13 +4616,13 @@
     </row>
     <row r="6" spans="2:42" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -4668,13 +4665,13 @@
     </row>
     <row r="7" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -4720,7 +4717,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="11"/>
@@ -4764,10 +4761,10 @@
     </row>
     <row r="9" spans="2:42" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="11"/>
@@ -4811,10 +4808,10 @@
     </row>
     <row r="10" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="11"/>
@@ -4858,10 +4855,10 @@
     </row>
     <row r="11" spans="2:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="11"/>
@@ -4905,10 +4902,10 @@
     </row>
     <row r="12" spans="2:42" ht="37" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="11"/>
@@ -4952,15 +4949,15 @@
     </row>
     <row r="13" spans="2:42" ht="37" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="11"/>
       <c r="F13" s="50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -5004,7 +5001,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="11"/>
@@ -5048,10 +5045,10 @@
     </row>
     <row r="15" spans="2:42" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" s="47"/>
       <c r="E15" s="11"/>
@@ -5095,10 +5092,10 @@
     </row>
     <row r="16" spans="2:42" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="11"/>
@@ -5142,10 +5139,10 @@
     </row>
     <row r="17" spans="2:42" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="11"/>
@@ -5189,10 +5186,10 @@
     </row>
     <row r="18" spans="2:42" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D18" s="48"/>
       <c r="E18" s="26"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\3DGameTeam\3DGameTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3B8BDFB8-920B-4267-B46E-724A3927FECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{33501E78-5D40-417A-B5BB-471B1D6F5F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{1FAD1F73-1DFD-41DC-BAF3-0D259E247EEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{1FAD1F73-1DFD-41DC-BAF3-0D259E247EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="182" uniqueCount="163">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="183" uniqueCount="163">
   <si>
     <t>ガントチャート</t>
     <phoneticPr fontId="1"/>
@@ -2356,7 +2356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2522,118 +2522,172 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2693,172 +2747,118 @@
     <xf numFmtId="56" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2868,6 +2868,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3307,7 +3310,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC689AA-D477-4FA5-8B90-69C0329D1886}">
   <dimension ref="B1:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="H24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
@@ -3326,101 +3329,101 @@
   <sheetData>
     <row r="1" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="146" t="s">
+      <c r="E2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="147"/>
-      <c r="G2" s="148"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E3" s="149"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="151"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="5" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="6" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="153"/>
-      <c r="N6" s="112" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="N6" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113"/>
-      <c r="V6" s="113"/>
-      <c r="W6" s="114"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="79"/>
     </row>
     <row r="7" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="154"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="156"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="116"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="117"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="82"/>
     </row>
     <row r="8" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="154"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="156"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="117"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="82"/>
     </row>
     <row r="9" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C9" s="157"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="159"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="119"/>
-      <c r="U9" s="119"/>
-      <c r="V9" s="119"/>
-      <c r="W9" s="120"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="85"/>
     </row>
     <row r="10" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C10" s="4"/>
@@ -3429,231 +3432,231 @@
       <c r="W10" s="5"/>
     </row>
     <row r="11" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="161"/>
-      <c r="F11" s="164" t="s">
+      <c r="D11" s="71"/>
+      <c r="F11" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="165"/>
-      <c r="I11" s="164" t="s">
+      <c r="G11" s="75"/>
+      <c r="I11" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="165"/>
+      <c r="J11" s="75"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="121" t="s">
+      <c r="O11" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="123"/>
-      <c r="T11" s="127" t="s">
+      <c r="P11" s="87"/>
+      <c r="Q11" s="88"/>
+      <c r="T11" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="128"/>
-      <c r="V11" s="129"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="94"/>
       <c r="W11" s="5"/>
     </row>
     <row r="12" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C12" s="162"/>
-      <c r="D12" s="163"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="167"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="167"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="77"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="126"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="132"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="91"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="97"/>
       <c r="W12" s="5"/>
     </row>
     <row r="13" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="F13" s="111" t="s">
+      <c r="D13" s="123"/>
+      <c r="F13" s="129" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="108" t="d">
+      <c r="I13" s="126" t="d">
         <v>2025-01-20</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="133" t="s">
+      <c r="O13" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="135"/>
-      <c r="T13" s="133" t="s">
+      <c r="P13" s="99"/>
+      <c r="Q13" s="100"/>
+      <c r="T13" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="U13" s="134"/>
-      <c r="V13" s="135"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C14" s="108" t="d">
+      <c r="C14" s="126" t="d">
         <v>2025-01-20</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="109"/>
+      <c r="F14" s="127"/>
       <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="110"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="139" t="d">
+      <c r="O14" s="104" t="d">
         <v>2025-01-20</v>
       </c>
-      <c r="P14" s="140"/>
+      <c r="P14" s="105"/>
       <c r="Q14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T14" s="145" t="s">
+      <c r="T14" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="U14" s="140"/>
+      <c r="U14" s="105"/>
       <c r="V14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C15" s="109"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="110"/>
+      <c r="F15" s="128"/>
       <c r="G15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="5"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="142"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="107"/>
       <c r="Q15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="141"/>
-      <c r="U15" s="142"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="107"/>
       <c r="V15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C16" s="109"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="5"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="142"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="107"/>
       <c r="Q16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="143"/>
-      <c r="U16" s="144"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="109"/>
       <c r="V16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C17" s="109"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="5"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="142"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="107"/>
       <c r="Q17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T17" s="133" t="s">
+      <c r="T17" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="U17" s="134"/>
-      <c r="V17" s="135"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="100"/>
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="109"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="5"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="142"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="107"/>
       <c r="Q18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T18" s="145" t="s">
+      <c r="T18" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="U18" s="140"/>
+      <c r="U18" s="105"/>
       <c r="V18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C19" s="110"/>
+      <c r="C19" s="128"/>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="5"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="144"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="109"/>
       <c r="Q19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="141"/>
-      <c r="U19" s="142"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="107"/>
       <c r="V19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="W19" s="5"/>
     </row>
     <row r="20" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="107"/>
+      <c r="D20" s="125"/>
       <c r="J20" s="5"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="136" t="s">
+      <c r="O20" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="138"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="142"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="103"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="107"/>
       <c r="V20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="W20" s="5"/>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="108" t="d">
+      <c r="C21" s="126" t="d">
         <v>2025-01-20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3661,69 +3664,69 @@
       </c>
       <c r="J21" s="5"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="139" t="d">
+      <c r="O21" s="104" t="d">
         <v>2025-01-20</v>
       </c>
-      <c r="P21" s="140"/>
+      <c r="P21" s="105"/>
       <c r="Q21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="141"/>
-      <c r="U21" s="142"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="107"/>
       <c r="V21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="W21" s="5"/>
     </row>
     <row r="22" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C22" s="109"/>
+      <c r="C22" s="127"/>
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="5"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="142"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="107"/>
       <c r="Q22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T22" s="143"/>
-      <c r="U22" s="144"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="109"/>
       <c r="V22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="W22" s="5"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="109"/>
+      <c r="C23" s="127"/>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="5"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="142"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="107"/>
       <c r="Q23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="W23" s="5"/>
     </row>
     <row r="24" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C24" s="109"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="5"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="144"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="109"/>
       <c r="Q24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="W24" s="5"/>
     </row>
     <row r="25" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C25" s="109"/>
+      <c r="C25" s="127"/>
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3740,7 +3743,7 @@
       <c r="W25" s="8"/>
     </row>
     <row r="26" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C26" s="110"/>
+      <c r="C26" s="128"/>
       <c r="D26" s="3" t="s">
         <v>16</v>
       </c>
@@ -3757,20 +3760,20 @@
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="P28" s="65" t="s">
+      <c r="P28" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="67"/>
-      <c r="V28" s="55" t="s">
+      <c r="Q28" s="133"/>
+      <c r="R28" s="134"/>
+      <c r="V28" s="161" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="P29" s="68"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="70"/>
-      <c r="V29" s="56"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="167"/>
+      <c r="V29" s="162"/>
     </row>
     <row r="30" spans="3:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="P30" s="51"/>
@@ -3815,12 +3818,12 @@
       <c r="G34" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="93" t="s">
+      <c r="J34" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="95"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="113"/>
       <c r="V34" s="19" t="s">
         <v>118</v>
       </c>
@@ -3877,58 +3880,58 @@
       </c>
     </row>
     <row r="40" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="98"/>
-      <c r="I40" s="65" t="s">
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="116"/>
+      <c r="I40" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="67"/>
-      <c r="P40" s="65" t="s">
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="134"/>
+      <c r="P40" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="67"/>
+      <c r="Q40" s="133"/>
+      <c r="R40" s="134"/>
       <c r="V40" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B41" s="99"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="101"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="84"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="84"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="119"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="137"/>
+      <c r="P41" s="135"/>
+      <c r="Q41" s="136"/>
+      <c r="R41" s="137"/>
       <c r="V41" s="22" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="4"/>
-      <c r="C42" s="102" t="s">
+      <c r="C42" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="103"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="5"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="74" t="s">
+      <c r="J42" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="K42" s="75"/>
-      <c r="L42" s="76"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="140"/>
       <c r="M42" s="5"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="24" t="s">
@@ -3947,11 +3950,11 @@
       </c>
       <c r="E43" s="5"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="59" t="s">
+      <c r="J43" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="K43" s="60"/>
-      <c r="L43" s="61"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="143"/>
       <c r="M43" s="5"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="18" t="s">
@@ -3970,11 +3973,11 @@
       </c>
       <c r="E44" s="5"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="59" t="s">
+      <c r="J44" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="K44" s="60"/>
-      <c r="L44" s="61"/>
+      <c r="K44" s="142"/>
+      <c r="L44" s="143"/>
       <c r="M44" s="5"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="19" t="s">
@@ -3993,11 +3996,11 @@
       </c>
       <c r="E45" s="5"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="59" t="s">
+      <c r="J45" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="K45" s="60"/>
-      <c r="L45" s="61"/>
+      <c r="K45" s="142"/>
+      <c r="L45" s="143"/>
       <c r="M45" s="5"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="19" t="s">
@@ -4010,17 +4013,17 @@
     </row>
     <row r="46" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B46" s="4"/>
-      <c r="C46" s="80" t="s">
+      <c r="C46" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="81"/>
+      <c r="D46" s="131"/>
       <c r="E46" s="5"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="59" t="s">
+      <c r="J46" s="141" t="s">
         <v>86</v>
       </c>
-      <c r="K46" s="60"/>
-      <c r="L46" s="61"/>
+      <c r="K46" s="142"/>
+      <c r="L46" s="143"/>
       <c r="M46" s="5"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="19" t="s">
@@ -4039,11 +4042,11 @@
       </c>
       <c r="E47" s="5"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="62" t="s">
+      <c r="J47" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="63"/>
-      <c r="L47" s="64"/>
+      <c r="K47" s="145"/>
+      <c r="L47" s="146"/>
       <c r="M47" s="8"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="19" t="s">
@@ -4120,18 +4123,18 @@
     </row>
     <row r="52" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B52" s="4"/>
-      <c r="C52" s="80" t="s">
+      <c r="C52" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="81"/>
+      <c r="D52" s="131"/>
       <c r="E52" s="5"/>
-      <c r="I52" s="85" t="s">
+      <c r="I52" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="87"/>
+      <c r="J52" s="148"/>
+      <c r="K52" s="148"/>
+      <c r="L52" s="148"/>
+      <c r="M52" s="149"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="23" t="s">
         <v>81</v>
@@ -4145,11 +4148,11 @@
         <v>70</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="90"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="151"/>
+      <c r="K53" s="151"/>
+      <c r="L53" s="151"/>
+      <c r="M53" s="152"/>
     </row>
     <row r="54" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B54" s="6"/>
@@ -4158,32 +4161,32 @@
         <v>71</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="89"/>
-      <c r="M54" s="92"/>
-      <c r="V54" s="57" t="s">
+      <c r="I54" s="153"/>
+      <c r="J54" s="151"/>
+      <c r="K54" s="151"/>
+      <c r="L54" s="151"/>
+      <c r="M54" s="154"/>
+      <c r="V54" s="163" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="55" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I55" s="4"/>
-      <c r="J55" s="71" t="s">
+      <c r="J55" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="K55" s="72"/>
-      <c r="L55" s="73"/>
+      <c r="K55" s="156"/>
+      <c r="L55" s="157"/>
       <c r="M55" s="5"/>
-      <c r="V55" s="58"/>
+      <c r="V55" s="164"/>
     </row>
     <row r="56" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I56" s="4"/>
-      <c r="J56" s="74" t="s">
+      <c r="J56" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="K56" s="75"/>
-      <c r="L56" s="76"/>
+      <c r="K56" s="139"/>
+      <c r="L56" s="140"/>
       <c r="M56" s="5"/>
       <c r="V56" s="21" t="s">
         <v>137</v>
@@ -4191,11 +4194,11 @@
     </row>
     <row r="57" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I57" s="4"/>
-      <c r="J57" s="59" t="s">
+      <c r="J57" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="K57" s="60"/>
-      <c r="L57" s="61"/>
+      <c r="K57" s="142"/>
+      <c r="L57" s="143"/>
       <c r="M57" s="5"/>
       <c r="V57" s="21" t="s">
         <v>138</v>
@@ -4203,232 +4206,186 @@
     </row>
     <row r="58" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I58" s="4"/>
-      <c r="J58" s="77" t="s">
+      <c r="J58" s="158" t="s">
         <v>92</v>
       </c>
-      <c r="K58" s="78"/>
-      <c r="L58" s="79"/>
+      <c r="K58" s="159"/>
+      <c r="L58" s="160"/>
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I59" s="4"/>
-      <c r="J59" s="71" t="s">
+      <c r="J59" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="K59" s="72"/>
-      <c r="L59" s="73"/>
+      <c r="K59" s="156"/>
+      <c r="L59" s="157"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="I60" s="4"/>
-      <c r="J60" s="74" t="s">
+      <c r="J60" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="K60" s="75"/>
-      <c r="L60" s="76"/>
+      <c r="K60" s="139"/>
+      <c r="L60" s="140"/>
       <c r="M60" s="5"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="I61" s="4"/>
-      <c r="J61" s="59" t="s">
+      <c r="J61" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="K61" s="60"/>
-      <c r="L61" s="61"/>
+      <c r="K61" s="142"/>
+      <c r="L61" s="143"/>
       <c r="M61" s="5"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="I62" s="4"/>
-      <c r="J62" s="59" t="s">
+      <c r="J62" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="K62" s="60"/>
-      <c r="L62" s="61"/>
+      <c r="K62" s="142"/>
+      <c r="L62" s="143"/>
       <c r="M62" s="5"/>
     </row>
     <row r="63" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I63" s="4"/>
-      <c r="J63" s="77" t="s">
+      <c r="J63" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="K63" s="78"/>
-      <c r="L63" s="79"/>
+      <c r="K63" s="159"/>
+      <c r="L63" s="160"/>
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I64" s="4"/>
-      <c r="J64" s="71" t="s">
+      <c r="J64" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="K64" s="72"/>
-      <c r="L64" s="73"/>
+      <c r="K64" s="156"/>
+      <c r="L64" s="157"/>
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I65" s="4"/>
-      <c r="J65" s="74" t="s">
+      <c r="J65" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="K65" s="75"/>
-      <c r="L65" s="76"/>
+      <c r="K65" s="139"/>
+      <c r="L65" s="140"/>
       <c r="M65" s="5"/>
     </row>
     <row r="66" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I66" s="4"/>
-      <c r="J66" s="59" t="s">
+      <c r="J66" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="K66" s="60"/>
-      <c r="L66" s="61"/>
+      <c r="K66" s="142"/>
+      <c r="L66" s="143"/>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I67" s="4"/>
-      <c r="J67" s="59" t="s">
+      <c r="J67" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="K67" s="60"/>
-      <c r="L67" s="61"/>
+      <c r="K67" s="142"/>
+      <c r="L67" s="143"/>
       <c r="M67" s="5"/>
     </row>
     <row r="68" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I68" s="4"/>
-      <c r="J68" s="59" t="s">
+      <c r="J68" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="K68" s="60"/>
-      <c r="L68" s="61"/>
+      <c r="K68" s="142"/>
+      <c r="L68" s="143"/>
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="9:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I69" s="4"/>
-      <c r="J69" s="77" t="s">
+      <c r="J69" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="K69" s="78"/>
-      <c r="L69" s="79"/>
+      <c r="K69" s="159"/>
+      <c r="L69" s="160"/>
       <c r="M69" s="5"/>
     </row>
     <row r="70" spans="9:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I70" s="4"/>
-      <c r="J70" s="71" t="s">
+      <c r="J70" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="K70" s="72"/>
-      <c r="L70" s="73"/>
+      <c r="K70" s="156"/>
+      <c r="L70" s="157"/>
       <c r="M70" s="5"/>
     </row>
     <row r="71" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I71" s="4"/>
-      <c r="J71" s="74" t="s">
+      <c r="J71" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="K71" s="75"/>
-      <c r="L71" s="76"/>
+      <c r="K71" s="139"/>
+      <c r="L71" s="140"/>
       <c r="M71" s="5"/>
     </row>
     <row r="72" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I72" s="4"/>
-      <c r="J72" s="59" t="s">
+      <c r="J72" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="K72" s="60"/>
-      <c r="L72" s="61"/>
+      <c r="K72" s="142"/>
+      <c r="L72" s="143"/>
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I73" s="4"/>
-      <c r="J73" s="59" t="s">
+      <c r="J73" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="K73" s="60"/>
-      <c r="L73" s="61"/>
+      <c r="K73" s="142"/>
+      <c r="L73" s="143"/>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I74" s="4"/>
-      <c r="J74" s="59" t="s">
+      <c r="J74" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="K74" s="60"/>
-      <c r="L74" s="61"/>
+      <c r="K74" s="142"/>
+      <c r="L74" s="143"/>
       <c r="M74" s="5"/>
     </row>
     <row r="75" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I75" s="4"/>
-      <c r="J75" s="59" t="s">
+      <c r="J75" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="K75" s="60"/>
-      <c r="L75" s="61"/>
+      <c r="K75" s="142"/>
+      <c r="L75" s="143"/>
       <c r="M75" s="5"/>
     </row>
     <row r="76" spans="9:13" x14ac:dyDescent="0.55000000000000004">
       <c r="I76" s="4"/>
-      <c r="J76" s="59" t="s">
+      <c r="J76" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="K76" s="60"/>
-      <c r="L76" s="61"/>
+      <c r="K76" s="142"/>
+      <c r="L76" s="143"/>
       <c r="M76" s="5"/>
     </row>
     <row r="77" spans="9:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I77" s="6"/>
-      <c r="J77" s="62" t="s">
+      <c r="J77" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="K77" s="63"/>
-      <c r="L77" s="64"/>
+      <c r="K77" s="145"/>
+      <c r="L77" s="146"/>
       <c r="M77" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="C6:J9"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="N6:W9"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="T11:V12"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O14:P19"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T14:U16"/>
-    <mergeCell ref="T18:U22"/>
-    <mergeCell ref="O21:P24"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="B40:E41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="P40:R41"/>
-    <mergeCell ref="I40:M41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="I52:M54"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="J64:L64"/>
     <mergeCell ref="V28:V29"/>
     <mergeCell ref="V54:V55"/>
     <mergeCell ref="J75:L75"/>
@@ -4445,6 +4402,52 @@
     <mergeCell ref="J67:L67"/>
     <mergeCell ref="J68:L68"/>
     <mergeCell ref="J69:L69"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="P40:R41"/>
+    <mergeCell ref="I40:M41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="I52:M54"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="B40:E41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="N6:W9"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="T11:V12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O14:P19"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T14:U16"/>
+    <mergeCell ref="T18:U22"/>
+    <mergeCell ref="O21:P24"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="C6:J9"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="I11:J12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4456,10 +4459,10 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02D2303-CFA3-46F9-A8DF-76EA1BC5E32B}">
   <dimension ref="B2:AP18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozenSplit"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5195,7 +5198,9 @@
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="H18" s="171" t="s">
+        <v>157</v>
+      </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
